--- a/api分配与需要前端post以及返回的json.xlsx
+++ b/api分配与需要前端post以及返回的json.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\TeamDocument\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B911BF60-338D-416E-9A8A-FF4AF9B5F2F5}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32ABDEC4-4F47-420B-97A5-2D7CD7C5B33B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="32415" yWindow="2370" windowWidth="14400" windowHeight="10695" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="31980" yWindow="1935" windowWidth="14400" windowHeight="10695" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -409,10 +409,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>api/history_attend</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>参与历史</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -425,11 +421,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>api/history_organize</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>举办历史</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>api/personal_center/history_attend</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>api/personal_center/history_organize</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -765,8 +765,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C59" workbookViewId="0">
-      <selection activeCell="D71" sqref="D71"/>
+    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
+      <selection activeCell="A69" sqref="A69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1253,34 +1253,34 @@
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
+        <v>102</v>
+      </c>
+      <c r="B67" t="s">
         <v>98</v>
       </c>
-      <c r="B67" t="s">
+      <c r="D67" t="s">
         <v>99</v>
-      </c>
-      <c r="D67" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D68" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B69" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D69" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D70" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
   </sheetData>

--- a/api分配与需要前端post以及返回的json.xlsx
+++ b/api分配与需要前端post以及返回的json.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21901"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\TeamDocument\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CodeMonkey\WORKSPACE\meetingSystem\TeamDocument\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32ABDEC4-4F47-420B-97A5-2D7CD7C5B33B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="31980" yWindow="1935" windowWidth="14400" windowHeight="10695" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="31980" yWindow="1932" windowWidth="14400" windowHeight="10692"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="118">
   <si>
     <t>url</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -430,14 +429,106 @@
   </si>
   <si>
     <t>api/personal_center/history_organize</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{logo:"#",name:"#",start_time:"#",end_time:"#",location:"#",organizer:"#",introduction:"#",files:[{fileName:"#",fileSrc:"#"},..],type:"#","status_process":string, status_publish:string}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>控制台分页展示活动列表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>btn-type:"#" 按钮种类 ，分别是活动管理模块的 1 management-unpublished (未开始） 2 management-published(已发布） 3 management-processing(进行中） 4 management-finished(已结束） 5 management-to_be_audited(待审核） 以及我的活动的 6 my-not_start(未开始）7 my-processing(进行中） 8 my-finished(已结束） 我的收藏模块的9 fav-not_start 10 fav-processing 11 fav-finished</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>page-id:int  (int 第几页）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>per-page:int (每页有多少个）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>logoSrc(logo链接）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>activityName（名称）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>location(</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF808080"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>地点）</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>startTime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>endTime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>id (活动id)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pageNum(总页数）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>字典格式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>{pageNum:int,activities:[{logoSrc:"#",activityName:"#",location:"#",startTime:"#",endTime:"#",id:"#"},{...}</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF808080"/>
+        <rFont val="Adobe Myungjo Std M"/>
+        <family val="1"/>
+        <charset val="128"/>
+      </rPr>
+      <t>，</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF808080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>{...}]}</t>
+    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -458,6 +549,29 @@
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="9.8000000000000007"/>
+      <color rgb="FF808080"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="9.8000000000000007"/>
+      <color rgb="FF808080"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="9.8000000000000007"/>
+      <color rgb="FF808080"/>
+      <name val="Adobe Myungjo Std M"/>
+      <family val="1"/>
+      <charset val="128"/>
     </font>
   </fonts>
   <fills count="2">
@@ -480,9 +594,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -762,11 +879,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D70"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
-      <selection activeCell="A69" sqref="A69"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="G47" sqref="G47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -777,7 +894,7 @@
     <col min="4" max="4" width="52" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -790,8 +907,11 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F1" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -805,7 +925,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -819,7 +939,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>9</v>
       </c>
@@ -827,7 +947,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>13</v>
       </c>
@@ -841,7 +961,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>17</v>
       </c>
@@ -855,12 +975,12 @@
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D7" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>20</v>
       </c>
@@ -874,17 +994,17 @@
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D9" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D10" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>22</v>
       </c>
@@ -898,7 +1018,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>15</v>
       </c>
@@ -912,7 +1032,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
         <v>30</v>
       </c>
@@ -920,7 +1040,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
         <v>9</v>
       </c>
@@ -928,12 +1048,12 @@
         <v>50</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
         <v>32</v>
       </c>
@@ -1036,22 +1156,22 @@
         <v>47</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D33" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D34" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D35" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>57</v>
       </c>
@@ -1065,52 +1185,52 @@
         <v>56</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C37" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C38" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C39" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C40" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C41" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C42" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C43" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C44" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C45" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>68</v>
       </c>
@@ -1124,12 +1244,15 @@
         <v>71</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D47" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G47" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D48" t="s">
         <v>73</v>
       </c>
@@ -1229,7 +1352,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>92</v>
       </c>
@@ -1243,7 +1366,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C66" t="s">
         <v>95</v>
       </c>
@@ -1251,7 +1374,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>102</v>
       </c>
@@ -1262,12 +1385,12 @@
         <v>99</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D68" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>103</v>
       </c>
@@ -1278,9 +1401,59 @@
         <v>99</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D70" t="s">
         <v>100</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B72" t="s">
+        <v>105</v>
+      </c>
+      <c r="C72" t="s">
+        <v>106</v>
+      </c>
+      <c r="D72" t="s">
+        <v>109</v>
+      </c>
+      <c r="F72" s="2" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C73" t="s">
+        <v>107</v>
+      </c>
+      <c r="D73" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C74" t="s">
+        <v>108</v>
+      </c>
+      <c r="D74" s="2" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D75" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D76" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D77" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D78" t="s">
+        <v>115</v>
       </c>
     </row>
   </sheetData>

--- a/api分配与需要前端post以及返回的json.xlsx
+++ b/api分配与需要前端post以及返回的json.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="117">
   <si>
     <t>url</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -312,10 +312,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>status会议状态（可以不显示，因为可以查看到的会议应该都是已发布）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>start_time开始时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -429,10 +425,6 @@
   </si>
   <si>
     <t>api/personal_center/history_organize</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{logo:"#",name:"#",start_time:"#",end_time:"#",location:"#",organizer:"#",introduction:"#",files:[{fileName:"#",fileSrc:"#"},..],type:"#","status_process":string, status_publish:string}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -521,6 +513,10 @@
       </rPr>
       <t>{...}]}</t>
     </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{logo:"#",name:"#",start_time:"#",end_time:"#",location:"#",organizer:"#",introduction:"#",files:[{fileName:"#",fileSrc:"#"},..],type:"#","status_process":int, status_publish:int}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -880,9 +876,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G78"/>
+  <dimension ref="A1:G81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B43" workbookViewId="0">
       <selection activeCell="G47" sqref="G47"/>
     </sheetView>
   </sheetViews>
@@ -908,7 +904,7 @@
         <v>2</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -1090,24 +1086,24 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
+        <v>84</v>
+      </c>
+      <c r="B23" t="s">
         <v>85</v>
-      </c>
-      <c r="B23" t="s">
-        <v>86</v>
       </c>
       <c r="C23" t="s">
         <v>8</v>
       </c>
       <c r="D23" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C24" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D24" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
@@ -1249,7 +1245,7 @@
         <v>72</v>
       </c>
       <c r="G47" t="s">
-        <v>104</v>
+        <v>116</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
@@ -1257,203 +1253,200 @@
         <v>73</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D49" t="s">
-        <v>74</v>
-      </c>
-    </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D50" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D51" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D52" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D53" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D54" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D55" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
-        <v>80</v>
-      </c>
-      <c r="B56" t="s">
-        <v>81</v>
-      </c>
-      <c r="C56" t="s">
-        <v>72</v>
-      </c>
       <c r="D56" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C57" t="s">
-        <v>73</v>
-      </c>
-      <c r="D57" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C58" t="s">
-        <v>82</v>
-      </c>
-      <c r="D58" t="s">
-        <v>91</v>
-      </c>
-    </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>79</v>
+      </c>
+      <c r="B59" t="s">
+        <v>80</v>
+      </c>
       <c r="C59" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C60" t="s">
-        <v>76</v>
+        <v>73</v>
+      </c>
+      <c r="D60" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C61" t="s">
-        <v>77</v>
+        <v>81</v>
+      </c>
+      <c r="D61" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C62" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C63" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C64" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A65" t="s">
-        <v>92</v>
-      </c>
-      <c r="B65" t="s">
-        <v>93</v>
-      </c>
       <c r="C65" t="s">
-        <v>94</v>
-      </c>
-      <c r="D65" t="s">
-        <v>96</v>
+        <v>77</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C66" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C67" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>91</v>
+      </c>
+      <c r="B68" t="s">
+        <v>92</v>
+      </c>
+      <c r="C68" t="s">
+        <v>93</v>
+      </c>
+      <c r="D68" t="s">
         <v>95</v>
       </c>
-      <c r="D66" t="s">
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C69" t="s">
+        <v>94</v>
+      </c>
+      <c r="D69" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>101</v>
+      </c>
+      <c r="B70" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A67" t="s">
+      <c r="D70" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D71" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
         <v>102</v>
       </c>
-      <c r="B67" t="s">
+      <c r="B72" t="s">
+        <v>100</v>
+      </c>
+      <c r="D72" t="s">
         <v>98</v>
       </c>
-      <c r="D67" t="s">
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D73" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D68" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A69" t="s">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B75" t="s">
         <v>103</v>
       </c>
-      <c r="B69" t="s">
-        <v>101</v>
-      </c>
-      <c r="D69" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D70" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B72" t="s">
+      <c r="C75" t="s">
+        <v>104</v>
+      </c>
+      <c r="D75" t="s">
+        <v>107</v>
+      </c>
+      <c r="F75" s="2" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C76" t="s">
         <v>105</v>
       </c>
-      <c r="C72" t="s">
+      <c r="D76" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C77" t="s">
         <v>106</v>
       </c>
-      <c r="D72" t="s">
+      <c r="D77" s="2" t="s">
         <v>109</v>
-      </c>
-      <c r="F72" s="2" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C73" t="s">
-        <v>107</v>
-      </c>
-      <c r="D73" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C74" t="s">
-        <v>108</v>
-      </c>
-      <c r="D74" s="2" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D75" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D76" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D77" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D78" t="s">
-        <v>115</v>
+        <v>110</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D79" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D80" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="81" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D81" t="s">
+        <v>113</v>
       </c>
     </row>
   </sheetData>

--- a/api分配与需要前端post以及返回的json.xlsx
+++ b/api分配与需要前端post以及返回的json.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="119">
   <si>
     <t>url</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -516,7 +516,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>{logo:"#",name:"#",start_time:"#",end_time:"#",location:"#",organizer:"#",introduction:"#",files:[{fileName:"#",fileSrc:"#"},..],type:"#","status_process":int, status_publish:int}</t>
+    <t>{logo:"#",name:"#",start_time:"#",end_time:"#",location:"#",organizer:"#",introduction:"#",files:[{fileName:"#",fileSrc:"#"},..],type:"#","status_process":string, status_publish:string}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">status_publish : unpublished,published, to_be_audited(待审核） </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>status_process : not_start, processing, finished</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -876,10 +884,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G81"/>
+  <dimension ref="A1:G82"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B43" workbookViewId="0">
-      <selection activeCell="G47" sqref="G47"/>
+    <sheetView tabSelected="1" topLeftCell="B37" workbookViewId="0">
+      <selection activeCell="D50" sqref="D50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1253,199 +1261,209 @@
         <v>73</v>
       </c>
     </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D49" t="s">
+        <v>117</v>
+      </c>
+    </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D50" t="s">
-        <v>74</v>
+        <v>118</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D51" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D52" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D53" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D54" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D55" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D56" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D57" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A59" t="s">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
         <v>79</v>
       </c>
-      <c r="B59" t="s">
+      <c r="B60" t="s">
         <v>80</v>
       </c>
-      <c r="C59" t="s">
+      <c r="C60" t="s">
         <v>72</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C60" t="s">
-        <v>73</v>
-      </c>
-      <c r="D60" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C61" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="D61" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C62" t="s">
-        <v>74</v>
+        <v>81</v>
+      </c>
+      <c r="D62" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C63" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C64" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C65" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C66" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C67" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C68" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A68" t="s">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
         <v>91</v>
       </c>
-      <c r="B68" t="s">
+      <c r="B69" t="s">
         <v>92</v>
       </c>
-      <c r="C68" t="s">
+      <c r="C69" t="s">
         <v>93</v>
       </c>
-      <c r="D68" t="s">
+      <c r="D69" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C69" t="s">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C70" t="s">
         <v>94</v>
       </c>
-      <c r="D69" t="s">
+      <c r="D70" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A70" t="s">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
         <v>101</v>
       </c>
-      <c r="B70" t="s">
+      <c r="B71" t="s">
         <v>97</v>
       </c>
-      <c r="D70" t="s">
+      <c r="D71" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D71" t="s">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D72" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A72" t="s">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
         <v>102</v>
       </c>
-      <c r="B72" t="s">
+      <c r="B73" t="s">
         <v>100</v>
       </c>
-      <c r="D72" t="s">
+      <c r="D73" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D73" t="s">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D74" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B75" t="s">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B76" t="s">
         <v>103</v>
       </c>
-      <c r="C75" t="s">
+      <c r="C76" t="s">
         <v>104</v>
       </c>
-      <c r="D75" t="s">
+      <c r="D76" t="s">
         <v>107</v>
       </c>
-      <c r="F75" s="2" t="s">
+      <c r="F76" s="2" t="s">
         <v>115</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C76" t="s">
-        <v>105</v>
-      </c>
-      <c r="D76" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C77" t="s">
+        <v>105</v>
+      </c>
+      <c r="D77" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C78" t="s">
         <v>106</v>
       </c>
-      <c r="D77" s="2" t="s">
+      <c r="D78" s="2" t="s">
         <v>109</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D78" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D79" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D80" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="81" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D81" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="82" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D82" t="s">
         <v>113</v>
       </c>
     </row>

--- a/api分配与需要前端post以及返回的json.xlsx
+++ b/api分配与需要前端post以及返回的json.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CodeMonkey\WORKSPACE\meetingSystem\TeamDocument\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yang\Desktop\TeamDocument\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="120">
   <si>
     <t>url</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -405,10 +405,6 @@
   </si>
   <si>
     <t>参与历史</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>list_activity活动列表（列表中嵌套字典，一个字典就是一个活动，包含uuid_act和name_act）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -525,6 +521,14 @@
   </si>
   <si>
     <t>status_process : not_start, processing, finished</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>list_activity活动列表（列表中嵌套字典，一个字典就是一个活动，包含uuid_act、name_act、start_time、end_time）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>list_activity活动列表（列表中嵌套字典，一个字典就是一个活动，包含uuid_act、name_act、start_time、end_time）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -886,8 +890,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G82"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B37" workbookViewId="0">
-      <selection activeCell="D50" sqref="D50"/>
+    <sheetView tabSelected="1" topLeftCell="B59" workbookViewId="0">
+      <selection activeCell="H70" sqref="H70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -912,7 +916,7 @@
         <v>2</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -1253,7 +1257,7 @@
         <v>72</v>
       </c>
       <c r="G47" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
@@ -1263,12 +1267,12 @@
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D49" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D50" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
@@ -1387,84 +1391,84 @@
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B71" t="s">
         <v>97</v>
       </c>
       <c r="D71" t="s">
-        <v>98</v>
+        <v>119</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D72" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B73" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D73" t="s">
-        <v>98</v>
+        <v>118</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D74" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B76" t="s">
+        <v>102</v>
+      </c>
+      <c r="C76" t="s">
         <v>103</v>
       </c>
-      <c r="C76" t="s">
-        <v>104</v>
-      </c>
       <c r="D76" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C77" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D77" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C78" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D79" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D80" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="81" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D81" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="82" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D82" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
   </sheetData>

--- a/api分配与需要前端post以及返回的json.xlsx
+++ b/api分配与需要前端post以及返回的json.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yang\Desktop\TeamDocument\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\TeamDocument\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E691D32-76D0-41C2-BC7C-97B3DC17BA70}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="31980" yWindow="1932" windowWidth="14400" windowHeight="10692"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="19440" windowHeight="15000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="124">
   <si>
     <t>url</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -531,12 +532,28 @@
     <t>list_activity活动列表（列表中嵌套字典，一个字典就是一个活动，包含uuid_act、name_act、start_time、end_time）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>uuid_act会议uuid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户报名活动</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>message信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>api/yw/apply</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -887,14 +904,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G82"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:G84"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B59" workbookViewId="0">
-      <selection activeCell="H70" sqref="H70"/>
+    <sheetView tabSelected="1" topLeftCell="A63" workbookViewId="0">
+      <selection activeCell="A86" sqref="A86"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
     <col min="1" max="1" width="37.21875" customWidth="1"/>
     <col min="2" max="2" width="15.21875" customWidth="1"/>
@@ -902,7 +919,7 @@
     <col min="4" max="4" width="52" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" ht="15.6">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -919,7 +936,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -933,7 +950,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" ht="14.4" customHeight="1">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -947,7 +964,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6">
       <c r="C4" t="s">
         <v>9</v>
       </c>
@@ -955,7 +972,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6">
       <c r="A5" t="s">
         <v>13</v>
       </c>
@@ -969,7 +986,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6">
       <c r="A6" t="s">
         <v>17</v>
       </c>
@@ -983,12 +1000,12 @@
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6">
       <c r="D7" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6">
       <c r="A8" t="s">
         <v>20</v>
       </c>
@@ -1002,17 +1019,17 @@
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6">
       <c r="D9" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6">
       <c r="D10" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6">
       <c r="A11" t="s">
         <v>22</v>
       </c>
@@ -1026,7 +1043,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6">
       <c r="A12" t="s">
         <v>15</v>
       </c>
@@ -1040,7 +1057,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6">
       <c r="C13" t="s">
         <v>30</v>
       </c>
@@ -1048,7 +1065,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6">
       <c r="C14" t="s">
         <v>9</v>
       </c>
@@ -1056,47 +1073,47 @@
         <v>50</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6">
       <c r="C15" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6">
       <c r="C16" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4">
       <c r="C17" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4">
       <c r="C18" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4">
       <c r="C19" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4">
       <c r="C20" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4">
       <c r="C21" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4">
       <c r="C22" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4">
       <c r="A23" t="s">
         <v>84</v>
       </c>
@@ -1110,7 +1127,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4">
       <c r="C24" t="s">
         <v>86</v>
       </c>
@@ -1118,7 +1135,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4">
       <c r="A25" t="s">
         <v>54</v>
       </c>
@@ -1129,57 +1146,57 @@
         <v>55</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4">
       <c r="D26" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4">
       <c r="D27" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4">
       <c r="D28" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4">
       <c r="D29" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4">
       <c r="D30" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4">
       <c r="D31" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4">
       <c r="D32" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7">
       <c r="D33" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7">
       <c r="D34" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7">
       <c r="D35" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7">
       <c r="A36" t="s">
         <v>57</v>
       </c>
@@ -1193,52 +1210,52 @@
         <v>56</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7">
       <c r="C37" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7">
       <c r="C38" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7">
       <c r="C39" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7">
       <c r="C40" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7">
       <c r="C41" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7">
       <c r="C42" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7">
       <c r="C43" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7">
       <c r="C44" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7">
       <c r="C45" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7">
       <c r="A46" t="s">
         <v>68</v>
       </c>
@@ -1252,7 +1269,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7">
       <c r="D47" t="s">
         <v>72</v>
       </c>
@@ -1260,57 +1277,57 @@
         <v>115</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:7">
       <c r="D48" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:4">
       <c r="D49" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:4">
       <c r="D50" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:4">
       <c r="D51" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:4">
       <c r="D52" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:4">
       <c r="D53" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:4">
       <c r="D54" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:4">
       <c r="D55" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:4">
       <c r="D56" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:4">
       <c r="D57" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:4">
       <c r="A60" t="s">
         <v>79</v>
       </c>
@@ -1321,7 +1338,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:4">
       <c r="C61" t="s">
         <v>73</v>
       </c>
@@ -1329,7 +1346,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:4">
       <c r="C62" t="s">
         <v>81</v>
       </c>
@@ -1337,37 +1354,37 @@
         <v>90</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:4">
       <c r="C63" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:4">
       <c r="C64" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6">
       <c r="C65" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6">
       <c r="C66" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6">
       <c r="C67" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6">
       <c r="C68" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6">
       <c r="A69" t="s">
         <v>91</v>
       </c>
@@ -1381,7 +1398,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6">
       <c r="C70" t="s">
         <v>94</v>
       </c>
@@ -1389,7 +1406,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6">
       <c r="A71" t="s">
         <v>100</v>
       </c>
@@ -1400,12 +1417,12 @@
         <v>119</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:6">
       <c r="D72" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6">
       <c r="A73" t="s">
         <v>101</v>
       </c>
@@ -1416,12 +1433,12 @@
         <v>118</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:6">
       <c r="D74" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:6">
       <c r="B76" t="s">
         <v>102</v>
       </c>
@@ -1435,7 +1452,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:6">
       <c r="C77" t="s">
         <v>104</v>
       </c>
@@ -1443,7 +1460,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:6">
       <c r="C78" t="s">
         <v>105</v>
       </c>
@@ -1451,24 +1468,38 @@
         <v>108</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:6">
       <c r="D79" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:6">
       <c r="D80" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="81" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:4">
       <c r="D81" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="82" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:4">
       <c r="D82" t="s">
         <v>112</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4">
+      <c r="A84" t="s">
+        <v>123</v>
+      </c>
+      <c r="B84" t="s">
+        <v>121</v>
+      </c>
+      <c r="C84" t="s">
+        <v>120</v>
+      </c>
+      <c r="D84" t="s">
+        <v>122</v>
       </c>
     </row>
   </sheetData>

--- a/api分配与需要前端post以及返回的json.xlsx
+++ b/api分配与需要前端post以及返回的json.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\TeamDocument\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E691D32-76D0-41C2-BC7C-97B3DC17BA70}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD73246A-94FD-426B-AEAF-D62A1309D6B3}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="19440" windowHeight="15000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="126">
   <si>
     <t>url</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -333,10 +333,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>api/activity/createActivity</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>创建活动</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -381,10 +377,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>api/activity/uploadFile</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>上传文件</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -414,14 +406,6 @@
   </si>
   <si>
     <t>举办历史</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>api/personal_center/history_attend</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>api/personal_center/history_organize</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -545,7 +529,31 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>api/yw/apply</t>
+    <t>api/activity/createActivity/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>api/activity/uploadFile/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>api/personal_center/history_attend/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>api/personal_center/history_organize/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>api/yw/apply/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>api/yw/collect/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户收藏活动</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -905,10 +913,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G84"/>
+  <dimension ref="A1:G85"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A63" workbookViewId="0">
-      <selection activeCell="A86" sqref="A86"/>
+      <selection activeCell="D86" sqref="D86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -933,7 +941,7 @@
         <v>2</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -1115,24 +1123,24 @@
     </row>
     <row r="23" spans="1:4">
       <c r="A23" t="s">
+        <v>83</v>
+      </c>
+      <c r="B23" t="s">
         <v>84</v>
-      </c>
-      <c r="B23" t="s">
-        <v>85</v>
       </c>
       <c r="C23" t="s">
         <v>8</v>
       </c>
       <c r="D23" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="C24" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D24" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -1274,7 +1282,7 @@
         <v>72</v>
       </c>
       <c r="G47" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
     </row>
     <row r="48" spans="1:7">
@@ -1284,12 +1292,12 @@
     </row>
     <row r="49" spans="1:4">
       <c r="D49" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
     </row>
     <row r="50" spans="1:4">
       <c r="D50" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
     </row>
     <row r="51" spans="1:4">
@@ -1314,7 +1322,7 @@
     </row>
     <row r="55" spans="1:4">
       <c r="D55" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="56" spans="1:4">
@@ -1329,10 +1337,10 @@
     </row>
     <row r="60" spans="1:4">
       <c r="A60" t="s">
+        <v>119</v>
+      </c>
+      <c r="B60" t="s">
         <v>79</v>
-      </c>
-      <c r="B60" t="s">
-        <v>80</v>
       </c>
       <c r="C60" t="s">
         <v>72</v>
@@ -1343,15 +1351,15 @@
         <v>73</v>
       </c>
       <c r="D61" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="62" spans="1:4">
       <c r="C62" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D62" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="63" spans="1:4">
@@ -1376,7 +1384,7 @@
     </row>
     <row r="67" spans="1:6">
       <c r="C67" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -1386,106 +1394,106 @@
     </row>
     <row r="69" spans="1:6">
       <c r="A69" t="s">
+        <v>120</v>
+      </c>
+      <c r="B69" t="s">
+        <v>90</v>
+      </c>
+      <c r="C69" t="s">
         <v>91</v>
       </c>
-      <c r="B69" t="s">
-        <v>92</v>
-      </c>
-      <c r="C69" t="s">
+      <c r="D69" t="s">
         <v>93</v>
-      </c>
-      <c r="D69" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="70" spans="1:6">
       <c r="C70" t="s">
+        <v>92</v>
+      </c>
+      <c r="D70" t="s">
         <v>94</v>
-      </c>
-      <c r="D70" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="71" spans="1:6">
       <c r="A71" t="s">
-        <v>100</v>
+        <v>121</v>
       </c>
       <c r="B71" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D71" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
     </row>
     <row r="72" spans="1:6">
       <c r="D72" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="73" spans="1:6">
       <c r="A73" t="s">
-        <v>101</v>
+        <v>122</v>
       </c>
       <c r="B73" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D73" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
     </row>
     <row r="74" spans="1:6">
       <c r="D74" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="76" spans="1:6">
       <c r="B76" t="s">
+        <v>98</v>
+      </c>
+      <c r="C76" t="s">
+        <v>99</v>
+      </c>
+      <c r="D76" t="s">
         <v>102</v>
       </c>
-      <c r="C76" t="s">
-        <v>103</v>
-      </c>
-      <c r="D76" t="s">
-        <v>106</v>
-      </c>
       <c r="F76" s="2" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
     </row>
     <row r="77" spans="1:6">
       <c r="C77" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="D77" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
     <row r="78" spans="1:6">
       <c r="C78" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
     </row>
     <row r="79" spans="1:6">
       <c r="D79" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
     </row>
     <row r="80" spans="1:6">
       <c r="D80" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
     </row>
     <row r="81" spans="1:4">
       <c r="D81" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
     </row>
     <row r="82" spans="1:4">
       <c r="D82" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
     </row>
     <row r="84" spans="1:4">
@@ -1493,13 +1501,27 @@
         <v>123</v>
       </c>
       <c r="B84" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="C84" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="D84" t="s">
-        <v>122</v>
+        <v>118</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4">
+      <c r="A85" t="s">
+        <v>124</v>
+      </c>
+      <c r="B85" t="s">
+        <v>125</v>
+      </c>
+      <c r="C85" t="s">
+        <v>116</v>
+      </c>
+      <c r="D85" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>

--- a/api分配与需要前端post以及返回的json.xlsx
+++ b/api分配与需要前端post以及返回的json.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\TeamDocument\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD73246A-94FD-426B-AEAF-D62A1309D6B3}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{179DA31D-040E-49A9-A350-FD141E86EE2A}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="19440" windowHeight="15000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="129">
   <si>
     <t>url</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -554,6 +554,18 @@
   </si>
   <si>
     <t>用户收藏活动</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>api/yw/showRecent/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>显示最近会议</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>list_activity活动列表（包含uuid,_act name_act, start_time和end_time)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -913,10 +925,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G85"/>
+  <dimension ref="A1:G87"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A63" workbookViewId="0">
-      <selection activeCell="D86" sqref="D86"/>
+      <selection activeCell="D88" sqref="D88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -1524,6 +1536,22 @@
         <v>27</v>
       </c>
     </row>
+    <row r="86" spans="1:4">
+      <c r="A86" t="s">
+        <v>126</v>
+      </c>
+      <c r="B86" t="s">
+        <v>127</v>
+      </c>
+      <c r="D86" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4">
+      <c r="D87" t="s">
+        <v>27</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/api分配与需要前端post以及返回的json.xlsx
+++ b/api分配与需要前端post以及返回的json.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\TeamDocument\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CodeMonkey\WORKSPACE\meetingSystem\TeamDocument\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{179DA31D-040E-49A9-A350-FD141E86EE2A}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="19440" windowHeight="15000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="19440" windowHeight="15000"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="130">
   <si>
     <t>url</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -497,10 +496,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>{logo:"#",name:"#",start_time:"#",end_time:"#",location:"#",organizer:"#",introduction:"#",files:[{fileName:"#",fileSrc:"#"},..],type:"#","status_process":string, status_publish:string}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve">status_publish : unpublished,published, to_be_audited(待审核） </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -566,14 +561,22 @@
   </si>
   <si>
     <t>list_activity活动列表（包含uuid,_act name_act, start_time和end_time)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>isHold:bool ,是否是该用户举办的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{logo:"#",name:"#",start_time:"#",end_time:"#",location:"#",organizer:"#",introduction:"#",files:[{fileName:"#",fileSrc:"#"},..],type:"#","status_process":string, status_publish:string, isHold : bool}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -924,14 +927,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G87"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A63" workbookViewId="0">
-      <selection activeCell="D88" sqref="D88"/>
+    <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
+      <selection activeCell="G47" sqref="G47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="37.21875" customWidth="1"/>
     <col min="2" max="2" width="15.21875" customWidth="1"/>
@@ -939,7 +942,7 @@
     <col min="4" max="4" width="52" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.6">
+    <row r="1" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -956,7 +959,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -970,7 +973,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="14.4" customHeight="1">
+    <row r="3" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -984,7 +987,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>9</v>
       </c>
@@ -992,7 +995,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>13</v>
       </c>
@@ -1006,7 +1009,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>17</v>
       </c>
@@ -1020,12 +1023,12 @@
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D7" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>20</v>
       </c>
@@ -1039,17 +1042,17 @@
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D9" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D10" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>22</v>
       </c>
@@ -1063,7 +1066,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>15</v>
       </c>
@@ -1077,7 +1080,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
         <v>30</v>
       </c>
@@ -1085,7 +1088,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
         <v>9</v>
       </c>
@@ -1093,47 +1096,47 @@
         <v>50</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="17" spans="1:4">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="18" spans="1:4">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="19" spans="1:4">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="20" spans="1:4">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="21" spans="1:4">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="22" spans="1:4">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C22" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="23" spans="1:4">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>83</v>
       </c>
@@ -1147,7 +1150,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="24" spans="1:4">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C24" t="s">
         <v>85</v>
       </c>
@@ -1155,7 +1158,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="25" spans="1:4">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>54</v>
       </c>
@@ -1166,57 +1169,57 @@
         <v>55</v>
       </c>
     </row>
-    <row r="26" spans="1:4">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D26" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="27" spans="1:4">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D27" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="28" spans="1:4">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D28" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="29" spans="1:4">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D29" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="30" spans="1:4">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D30" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="31" spans="1:4">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D31" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="32" spans="1:4">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D32" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="33" spans="1:7">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D33" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="34" spans="1:7">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D34" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="35" spans="1:7">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D35" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="36" spans="1:7">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>57</v>
       </c>
@@ -1230,52 +1233,52 @@
         <v>56</v>
       </c>
     </row>
-    <row r="37" spans="1:7">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C37" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="38" spans="1:7">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C38" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="39" spans="1:7">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C39" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="40" spans="1:7">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C40" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="41" spans="1:7">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C41" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="42" spans="1:7">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C42" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="43" spans="1:7">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C43" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="44" spans="1:7">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C44" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="45" spans="1:7">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C45" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="46" spans="1:7">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>68</v>
       </c>
@@ -1289,67 +1292,72 @@
         <v>71</v>
       </c>
     </row>
-    <row r="47" spans="1:7">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D47" t="s">
         <v>72</v>
       </c>
       <c r="G47" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D48" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="49" spans="1:4">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D49" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D50" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="50" spans="1:4">
-      <c r="D50" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D51" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="52" spans="1:4">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D52" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="53" spans="1:4">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D53" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="54" spans="1:4">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D54" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="55" spans="1:4">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D55" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="56" spans="1:4">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D56" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="57" spans="1:4">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D57" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="60" spans="1:4">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D58" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B60" t="s">
         <v>79</v>
@@ -1358,7 +1366,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="61" spans="1:4">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C61" t="s">
         <v>73</v>
       </c>
@@ -1366,7 +1374,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="62" spans="1:4">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C62" t="s">
         <v>80</v>
       </c>
@@ -1374,39 +1382,39 @@
         <v>89</v>
       </c>
     </row>
-    <row r="63" spans="1:4">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C63" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="64" spans="1:4">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C64" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="65" spans="1:6">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C65" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="66" spans="1:6">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C66" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="67" spans="1:6">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C67" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="68" spans="1:6">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C68" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="69" spans="1:6">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B69" t="s">
         <v>90</v>
@@ -1418,7 +1426,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="70" spans="1:6">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C70" t="s">
         <v>92</v>
       </c>
@@ -1426,39 +1434,39 @@
         <v>94</v>
       </c>
     </row>
-    <row r="71" spans="1:6">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B71" t="s">
         <v>95</v>
       </c>
       <c r="D71" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D72" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="73" spans="1:6">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B73" t="s">
         <v>97</v>
       </c>
       <c r="D73" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D74" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="76" spans="1:6">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B76" t="s">
         <v>98</v>
       </c>
@@ -1472,7 +1480,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="77" spans="1:6">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C77" t="s">
         <v>100</v>
       </c>
@@ -1480,7 +1488,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="78" spans="1:6">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C78" t="s">
         <v>101</v>
       </c>
@@ -1488,66 +1496,66 @@
         <v>104</v>
       </c>
     </row>
-    <row r="79" spans="1:6">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D79" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="80" spans="1:6">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D80" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="81" spans="1:4">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D81" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="82" spans="1:4">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D82" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="84" spans="1:4">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
+        <v>122</v>
+      </c>
+      <c r="B84" t="s">
+        <v>116</v>
+      </c>
+      <c r="C84" t="s">
+        <v>115</v>
+      </c>
+      <c r="D84" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
         <v>123</v>
       </c>
-      <c r="B84" t="s">
-        <v>117</v>
-      </c>
-      <c r="C84" t="s">
-        <v>116</v>
-      </c>
-      <c r="D84" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4">
-      <c r="A85" t="s">
+      <c r="B85" t="s">
         <v>124</v>
       </c>
-      <c r="B85" t="s">
-        <v>125</v>
-      </c>
       <c r="C85" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D85" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="86" spans="1:4">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
+        <v>125</v>
+      </c>
+      <c r="B86" t="s">
         <v>126</v>
       </c>
-      <c r="B86" t="s">
+      <c r="D86" t="s">
         <v>127</v>
       </c>
-      <c r="D86" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D87" t="s">
         <v>27</v>
       </c>

--- a/api分配与需要前端post以及返回的json.xlsx
+++ b/api分配与需要前端post以及返回的json.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="131">
   <si>
     <t>url</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -552,23 +552,27 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>显示最近会议</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>list_activity活动列表（包含uuid,_act name_act, start_time和end_time)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>isHold:bool ,是否是该用户举办的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{logo:"#",name:"#",start_time:"#",end_time:"#",location:"#",organizer:"#",introduction:"#",files:[{fileName:"#",fileSrc:"#"},..],type:"#","status_process":string, status_publish:string, isHold : bool}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>api/yw/showRecent/</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>显示最近会议</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>list_activity活动列表（包含uuid,_act name_act, start_time和end_time)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>isHold:bool ,是否是该用户举办的</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{logo:"#",name:"#",start_time:"#",end_time:"#",location:"#",organizer:"#",introduction:"#",files:[{fileName:"#",fileSrc:"#"},..],type:"#","status_process":string, status_publish:string, isHold : bool}</t>
+    <t>api/activity/pageDisplay/</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -930,8 +934,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G87"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
-      <selection activeCell="G47" sqref="G47"/>
+    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
+      <selection activeCell="A77" sqref="A77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1297,7 +1301,7 @@
         <v>72</v>
       </c>
       <c r="G47" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
@@ -1352,7 +1356,7 @@
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D58" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
@@ -1467,6 +1471,9 @@
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>130</v>
+      </c>
       <c r="B76" t="s">
         <v>98</v>
       </c>
@@ -1546,13 +1553,13 @@
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
+        <v>129</v>
+      </c>
+      <c r="B86" t="s">
         <v>125</v>
       </c>
-      <c r="B86" t="s">
+      <c r="D86" t="s">
         <v>126</v>
-      </c>
-      <c r="D86" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">

--- a/api分配与需要前端post以及返回的json.xlsx
+++ b/api分配与需要前端post以及返回的json.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CodeMonkey\WORKSPACE\meetingSystem\TeamDocument\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TEAMDOCUNMENT\TeamDocument\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{666D1654-E695-4262-AB81-EBAF0423506D}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="19440" windowHeight="15000"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="134">
   <si>
     <t>url</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -560,10 +561,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>isHold:bool ,是否是该用户举办的</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>{logo:"#",name:"#",start_time:"#",end_time:"#",location:"#",organizer:"#",introduction:"#",files:[{fileName:"#",fileSrc:"#"},..],type:"#","status_process":string, status_publish:string, isHold : bool}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -573,14 +570,30 @@
   </si>
   <si>
     <t>api/activity/pageDisplay/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>api/activity/editActivity</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>编辑会议</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>delete_files:['','','',...]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">roleType:int :0-游客 1-非发布者 2-发布者 </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -931,14 +944,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G87"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:G88"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
-      <selection activeCell="A77" sqref="A77"/>
+    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
+      <selection activeCell="C89" sqref="C89"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
     <col min="1" max="1" width="37.21875" customWidth="1"/>
     <col min="2" max="2" width="15.21875" customWidth="1"/>
@@ -946,7 +959,7 @@
     <col min="4" max="4" width="52" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" ht="15.6">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -963,7 +976,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -977,7 +990,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" ht="14.4" customHeight="1">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -991,7 +1004,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6">
       <c r="C4" t="s">
         <v>9</v>
       </c>
@@ -999,7 +1012,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6">
       <c r="A5" t="s">
         <v>13</v>
       </c>
@@ -1013,7 +1026,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6">
       <c r="A6" t="s">
         <v>17</v>
       </c>
@@ -1027,12 +1040,12 @@
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6">
       <c r="D7" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6">
       <c r="A8" t="s">
         <v>20</v>
       </c>
@@ -1046,17 +1059,17 @@
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6">
       <c r="D9" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6">
       <c r="D10" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6">
       <c r="A11" t="s">
         <v>22</v>
       </c>
@@ -1070,7 +1083,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6">
       <c r="A12" t="s">
         <v>15</v>
       </c>
@@ -1084,7 +1097,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6">
       <c r="C13" t="s">
         <v>30</v>
       </c>
@@ -1092,7 +1105,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6">
       <c r="C14" t="s">
         <v>9</v>
       </c>
@@ -1100,47 +1113,47 @@
         <v>50</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6">
       <c r="C15" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6">
       <c r="C16" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4">
       <c r="C17" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4">
       <c r="C18" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4">
       <c r="C19" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4">
       <c r="C20" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4">
       <c r="C21" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4">
       <c r="C22" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4">
       <c r="A23" t="s">
         <v>83</v>
       </c>
@@ -1154,7 +1167,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4">
       <c r="C24" t="s">
         <v>85</v>
       </c>
@@ -1162,7 +1175,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4">
       <c r="A25" t="s">
         <v>54</v>
       </c>
@@ -1173,57 +1186,57 @@
         <v>55</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4">
       <c r="D26" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4">
       <c r="D27" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4">
       <c r="D28" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4">
       <c r="D29" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4">
       <c r="D30" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4">
       <c r="D31" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4">
       <c r="D32" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7">
       <c r="D33" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7">
       <c r="D34" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7">
       <c r="D35" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7">
       <c r="A36" t="s">
         <v>57</v>
       </c>
@@ -1237,52 +1250,52 @@
         <v>56</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7">
       <c r="C37" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7">
       <c r="C38" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7">
       <c r="C39" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7">
       <c r="C40" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7">
       <c r="C41" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7">
       <c r="C42" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7">
       <c r="C43" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7">
       <c r="C44" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7">
       <c r="C45" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7">
       <c r="A46" t="s">
         <v>68</v>
       </c>
@@ -1296,70 +1309,70 @@
         <v>71</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7">
       <c r="D47" t="s">
         <v>72</v>
       </c>
       <c r="G47" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
       <c r="D48" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:4">
       <c r="D49" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:4">
       <c r="D50" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:4">
       <c r="D51" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:4">
       <c r="D52" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:4">
       <c r="D53" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:4">
       <c r="D54" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:4">
       <c r="D55" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:4">
       <c r="D56" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:4">
       <c r="D57" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:4">
       <c r="D58" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
       <c r="A60" t="s">
         <v>118</v>
       </c>
@@ -1370,7 +1383,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:4">
       <c r="C61" t="s">
         <v>73</v>
       </c>
@@ -1378,7 +1391,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:4">
       <c r="C62" t="s">
         <v>80</v>
       </c>
@@ -1386,37 +1399,37 @@
         <v>89</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:4">
       <c r="C63" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:4">
       <c r="C64" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6">
       <c r="C65" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6">
       <c r="C66" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6">
       <c r="C67" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6">
       <c r="C68" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6">
       <c r="A69" t="s">
         <v>119</v>
       </c>
@@ -1430,7 +1443,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6">
       <c r="C70" t="s">
         <v>92</v>
       </c>
@@ -1438,7 +1451,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6">
       <c r="A71" t="s">
         <v>120</v>
       </c>
@@ -1449,12 +1462,12 @@
         <v>114</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:6">
       <c r="D72" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6">
       <c r="A73" t="s">
         <v>121</v>
       </c>
@@ -1465,14 +1478,14 @@
         <v>113</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:6">
       <c r="D74" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:6">
       <c r="A76" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B76" t="s">
         <v>98</v>
@@ -1487,7 +1500,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:6">
       <c r="C77" t="s">
         <v>100</v>
       </c>
@@ -1495,7 +1508,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:6">
       <c r="C78" t="s">
         <v>101</v>
       </c>
@@ -1503,27 +1516,27 @@
         <v>104</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:6">
       <c r="D79" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:6">
       <c r="D80" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:4">
       <c r="D81" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:4">
       <c r="D82" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:4">
       <c r="A84" t="s">
         <v>122</v>
       </c>
@@ -1537,7 +1550,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:4">
       <c r="A85" t="s">
         <v>123</v>
       </c>
@@ -1551,9 +1564,9 @@
         <v>27</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:4">
       <c r="A86" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B86" t="s">
         <v>125</v>
@@ -1562,9 +1575,20 @@
         <v>126</v>
       </c>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:4">
       <c r="D87" t="s">
         <v>27</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4">
+      <c r="A88" t="s">
+        <v>130</v>
+      </c>
+      <c r="B88" t="s">
+        <v>131</v>
+      </c>
+      <c r="C88" t="s">
+        <v>132</v>
       </c>
     </row>
   </sheetData>

--- a/api分配与需要前端post以及返回的json.xlsx
+++ b/api分配与需要前端post以及返回的json.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TEAMDOCUNMENT\TeamDocument\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{666D1654-E695-4262-AB81-EBAF0423506D}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75F08541-3AE6-4A35-8882-B6B41DBE86AF}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="144">
   <si>
     <t>url</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -586,6 +586,46 @@
   </si>
   <si>
     <t xml:space="preserve">roleType:int :0-游客 1-非发布者 2-发布者 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>uuid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>logo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>start_time</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>end_time</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>location</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>organizer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>introduction</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>change[{}{}{}{}...]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -945,10 +985,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G88"/>
+  <dimension ref="A1:G97"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
-      <selection activeCell="C89" sqref="C89"/>
+    <sheetView tabSelected="1" topLeftCell="B82" workbookViewId="0">
+      <selection activeCell="E90" sqref="E90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -1590,6 +1630,57 @@
       <c r="C88" t="s">
         <v>132</v>
       </c>
+      <c r="D88" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4">
+      <c r="C89" t="s">
+        <v>134</v>
+      </c>
+      <c r="D89" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4">
+      <c r="C90" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4">
+      <c r="C91" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4">
+      <c r="C92" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4">
+      <c r="C93" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4">
+      <c r="C94" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4">
+      <c r="C95" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4">
+      <c r="C96" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="97" spans="3:3">
+      <c r="C97" t="s">
+        <v>142</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/api分配与需要前端post以及返回的json.xlsx
+++ b/api分配与需要前端post以及返回的json.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TEAMDOCUNMENT\TeamDocument\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\TeamDocument\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75F08541-3AE6-4A35-8882-B6B41DBE86AF}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E395DD0-604F-4BCF-B1BE-1245381ACD74}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="149">
   <si>
     <t>url</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -626,6 +626,26 @@
   </si>
   <si>
     <t>change[{}{}{}{}...]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>管理审核</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>type（int类型，1为审核发布，2为审核修改，3为审核删除）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>result（bool类型，审核结果）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>uuid_act活动</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>uuid_user用户</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -985,10 +1005,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G97"/>
+  <dimension ref="A1:G101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B82" workbookViewId="0">
-      <selection activeCell="E90" sqref="E90"/>
+    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
+      <selection activeCell="D99" sqref="D99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -1677,9 +1697,35 @@
         <v>141</v>
       </c>
     </row>
-    <row r="97" spans="3:3">
+    <row r="97" spans="2:4">
       <c r="C97" t="s">
         <v>142</v>
+      </c>
+    </row>
+    <row r="98" spans="2:4">
+      <c r="B98" t="s">
+        <v>144</v>
+      </c>
+      <c r="C98" t="s">
+        <v>145</v>
+      </c>
+      <c r="D98" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="99" spans="2:4">
+      <c r="C99" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="100" spans="2:4">
+      <c r="C100" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="101" spans="2:4">
+      <c r="C101" t="s">
+        <v>148</v>
       </c>
     </row>
   </sheetData>

--- a/api分配与需要前端post以及返回的json.xlsx
+++ b/api分配与需要前端post以及返回的json.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\TeamDocument\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E395DD0-604F-4BCF-B1BE-1245381ACD74}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1F283A3-AE79-412D-A449-229A35B6426E}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="146">
   <si>
     <t>url</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -629,23 +629,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>管理审核</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>type（int类型，1为审核发布，2为审核修改，3为审核删除）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>result（bool类型，审核结果）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>uuid_act活动</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>uuid_user用户</t>
+    <t>查看待审核活动</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>list_activity活动列表（包含name_act,location,,start_time,end_time,organizer)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1005,10 +993,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G101"/>
+  <dimension ref="A1:G99"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
-      <selection activeCell="D99" sqref="D99"/>
+    <sheetView tabSelected="1" topLeftCell="A83" workbookViewId="0">
+      <selection activeCell="D98" sqref="D98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -1706,26 +1694,13 @@
       <c r="B98" t="s">
         <v>144</v>
       </c>
-      <c r="C98" t="s">
+      <c r="D98" t="s">
         <v>145</v>
       </c>
-      <c r="D98" t="s">
+    </row>
+    <row r="99" spans="2:4">
+      <c r="D99" t="s">
         <v>27</v>
-      </c>
-    </row>
-    <row r="99" spans="2:4">
-      <c r="C99" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="100" spans="2:4">
-      <c r="C100" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="101" spans="2:4">
-      <c r="C101" t="s">
-        <v>148</v>
       </c>
     </row>
   </sheetData>

--- a/api分配与需要前端post以及返回的json.xlsx
+++ b/api分配与需要前端post以及返回的json.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\TeamDocument\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1F283A3-AE79-412D-A449-229A35B6426E}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58B7B55A-73B0-46AB-8D45-7247083514A1}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="19440" windowHeight="15000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="147">
   <si>
     <t>url</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -633,7 +633,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>list_activity活动列表（包含name_act,location,,start_time,end_time,organizer)</t>
+    <t>list_activity活动列表（包含uuid_act,name_act,location,,start_time,end_time,organizer,action)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>api/yw/showActivityList</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -996,7 +1000,7 @@
   <dimension ref="A1:G99"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A83" workbookViewId="0">
-      <selection activeCell="D98" sqref="D98"/>
+      <selection activeCell="A98" sqref="A98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -1685,12 +1689,15 @@
         <v>141</v>
       </c>
     </row>
-    <row r="97" spans="2:4">
+    <row r="97" spans="1:4">
       <c r="C97" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="98" spans="2:4">
+    <row r="98" spans="1:4">
+      <c r="A98" t="s">
+        <v>146</v>
+      </c>
       <c r="B98" t="s">
         <v>144</v>
       </c>
@@ -1698,7 +1705,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="99" spans="2:4">
+    <row r="99" spans="1:4">
       <c r="D99" t="s">
         <v>27</v>
       </c>

--- a/api分配与需要前端post以及返回的json.xlsx
+++ b/api分配与需要前端post以及返回的json.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\TeamDocument\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58B7B55A-73B0-46AB-8D45-7247083514A1}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C2F2BCC-1E11-4453-957C-E5B139F5474C}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="19440" windowHeight="15000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="159">
   <si>
     <t>url</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -342,10 +342,6 @@
   </si>
   <si>
     <t>logo会议图标</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>logo会议图标（不知道怎么传文件给前端）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -637,7 +633,58 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>api/yw/showActivityList</t>
+    <t>api/yw/showActivityList/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>显示审核修改界面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>uuid（活动）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>name_old会议名称 name_new</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>type_old会议类型  type_new</t>
+  </si>
+  <si>
+    <t>start_time_old开始时间  start_time_new</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>end_time_old结束时间  end_time_new</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>location_old地点  location_new</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>organizer_old主办方  organizer_new</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>logo_old会议图标  logo_new</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>introduction_old会议介绍  introduction_new</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>logo_old  logo_new</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>files_new</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>api/yw/showModification</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -997,10 +1044,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G99"/>
+  <dimension ref="A1:G110"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A83" workbookViewId="0">
-      <selection activeCell="A98" sqref="A98"/>
+    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
+      <selection activeCell="A100" sqref="A100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -1025,7 +1072,7 @@
         <v>2</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -1207,24 +1254,24 @@
     </row>
     <row r="23" spans="1:4">
       <c r="A23" t="s">
+        <v>82</v>
+      </c>
+      <c r="B23" t="s">
         <v>83</v>
-      </c>
-      <c r="B23" t="s">
-        <v>84</v>
       </c>
       <c r="C23" t="s">
         <v>8</v>
       </c>
       <c r="D23" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="C24" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D24" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -1366,7 +1413,7 @@
         <v>72</v>
       </c>
       <c r="G47" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="48" spans="1:7">
@@ -1376,12 +1423,12 @@
     </row>
     <row r="49" spans="1:4">
       <c r="D49" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="50" spans="1:4">
       <c r="D50" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="51" spans="1:4">
@@ -1406,7 +1453,7 @@
     </row>
     <row r="55" spans="1:4">
       <c r="D55" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="56" spans="1:4">
@@ -1421,12 +1468,12 @@
     </row>
     <row r="58" spans="1:4">
       <c r="D58" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="60" spans="1:4">
       <c r="A60" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B60" t="s">
         <v>79</v>
@@ -1440,7 +1487,7 @@
         <v>73</v>
       </c>
       <c r="D61" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="62" spans="1:4">
@@ -1448,7 +1495,7 @@
         <v>80</v>
       </c>
       <c r="D62" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="63" spans="1:4">
@@ -1483,134 +1530,134 @@
     </row>
     <row r="69" spans="1:6">
       <c r="A69" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B69" t="s">
+        <v>89</v>
+      </c>
+      <c r="C69" t="s">
         <v>90</v>
       </c>
-      <c r="C69" t="s">
-        <v>91</v>
-      </c>
       <c r="D69" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="70" spans="1:6">
       <c r="C70" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D70" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="71" spans="1:6">
       <c r="A71" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B71" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D71" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="72" spans="1:6">
       <c r="D72" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="73" spans="1:6">
       <c r="A73" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B73" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D73" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="74" spans="1:6">
       <c r="D74" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="76" spans="1:6">
       <c r="A76" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B76" t="s">
+        <v>97</v>
+      </c>
+      <c r="C76" t="s">
         <v>98</v>
       </c>
-      <c r="C76" t="s">
-        <v>99</v>
-      </c>
       <c r="D76" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="77" spans="1:6">
       <c r="C77" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D77" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="78" spans="1:6">
       <c r="C78" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="79" spans="1:6">
       <c r="D79" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="80" spans="1:6">
       <c r="D80" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="81" spans="1:4">
       <c r="D81" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="82" spans="1:4">
       <c r="D82" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="84" spans="1:4">
       <c r="A84" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B84" t="s">
+        <v>115</v>
+      </c>
+      <c r="C84" t="s">
+        <v>114</v>
+      </c>
+      <c r="D84" t="s">
         <v>116</v>
-      </c>
-      <c r="C84" t="s">
-        <v>115</v>
-      </c>
-      <c r="D84" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="85" spans="1:4">
       <c r="A85" t="s">
+        <v>122</v>
+      </c>
+      <c r="B85" t="s">
         <v>123</v>
       </c>
-      <c r="B85" t="s">
-        <v>124</v>
-      </c>
       <c r="C85" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D85" t="s">
         <v>27</v>
@@ -1618,13 +1665,13 @@
     </row>
     <row r="86" spans="1:4">
       <c r="A86" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B86" t="s">
+        <v>124</v>
+      </c>
+      <c r="D86" t="s">
         <v>125</v>
-      </c>
-      <c r="D86" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="87" spans="1:4">
@@ -1634,13 +1681,13 @@
     </row>
     <row r="88" spans="1:4">
       <c r="A88" t="s">
+        <v>129</v>
+      </c>
+      <c r="B88" t="s">
         <v>130</v>
       </c>
-      <c r="B88" t="s">
+      <c r="C88" t="s">
         <v>131</v>
-      </c>
-      <c r="C88" t="s">
-        <v>132</v>
       </c>
       <c r="D88" t="s">
         <v>27</v>
@@ -1648,66 +1695,130 @@
     </row>
     <row r="89" spans="1:4">
       <c r="C89" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D89" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="90" spans="1:4">
       <c r="C90" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="91" spans="1:4">
       <c r="C91" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="92" spans="1:4">
       <c r="C92" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="93" spans="1:4">
       <c r="C93" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="94" spans="1:4">
       <c r="C94" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="95" spans="1:4">
       <c r="C95" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="96" spans="1:4">
       <c r="C96" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="97" spans="1:4">
       <c r="C97" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="98" spans="1:4">
       <c r="A98" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B98" t="s">
+        <v>143</v>
+      </c>
+      <c r="D98" t="s">
         <v>144</v>
-      </c>
-      <c r="D98" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="99" spans="1:4">
       <c r="D99" t="s">
         <v>27</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4">
+      <c r="A100" t="s">
+        <v>158</v>
+      </c>
+      <c r="B100" t="s">
+        <v>146</v>
+      </c>
+      <c r="C100" t="s">
+        <v>147</v>
+      </c>
+      <c r="D100" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4">
+      <c r="D101" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4">
+      <c r="D102" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4">
+      <c r="D103" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4">
+      <c r="D104" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4">
+      <c r="D105" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4">
+      <c r="D106" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4">
+      <c r="D107" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4">
+      <c r="D108" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4">
+      <c r="D109" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4">
+      <c r="D110" t="s">
+        <v>157</v>
       </c>
     </row>
   </sheetData>

--- a/api分配与需要前端post以及返回的json.xlsx
+++ b/api分配与需要前端post以及返回的json.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\TeamDocument\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CodeMonkey\WORKSPACE\meetingSystem\TeamDocument\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C2F2BCC-1E11-4453-957C-E5B139F5474C}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="19440" windowHeight="15000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="19440" windowHeight="15000"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="160">
   <si>
     <t>url</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -466,8 +465,203 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t xml:space="preserve">status_publish : unpublished,published, to_be_audited(待审核） </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>status_process : not_start, processing, finished</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>list_activity活动列表（列表中嵌套字典，一个字典就是一个活动，包含uuid_act、name_act、start_time、end_time）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>list_activity活动列表（列表中嵌套字典，一个字典就是一个活动，包含uuid_act、name_act、start_time、end_time）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>uuid_act会议uuid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户报名活动</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>message信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>api/activity/createActivity/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>api/activity/uploadFile/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>api/personal_center/history_attend/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>api/personal_center/history_organize/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>api/yw/apply/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>api/yw/collect/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户收藏活动</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>显示最近会议</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>list_activity活动列表（包含uuid,_act name_act, start_time和end_time)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{logo:"#",name:"#",start_time:"#",end_time:"#",location:"#",organizer:"#",introduction:"#",files:[{fileName:"#",fileSrc:"#"},..],type:"#","status_process":string, status_publish:string, isHold : bool}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>api/yw/showRecent/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>api/activity/pageDisplay/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>api/activity/editActivity</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>编辑会议</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>delete_files:['','','',...]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">roleType:int :0-游客 1-非发布者 2-发布者 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>uuid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>logo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>start_time</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>end_time</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>location</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>organizer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>introduction</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>change[{}{}{}{}...]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查看待审核活动</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>list_activity活动列表（包含uuid_act,name_act,location,,start_time,end_time,organizer,action)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>api/yw/showActivityList/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>显示审核修改界面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>uuid（活动）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>name_old会议名称 name_new</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>type_old会议类型  type_new</t>
+  </si>
+  <si>
+    <t>start_time_old开始时间  start_time_new</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>end_time_old结束时间  end_time_new</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>location_old地点  location_new</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>organizer_old主办方  organizer_new</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>logo_old会议图标  logo_new</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>introduction_old会议介绍  introduction_new</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>logo_old  logo_new</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>files_new</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>api/yw/showModification</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <r>
-      <t>{pageNum:int,activities:[{logoSrc:"#",activityName:"#",location:"#",startTime:"#",endTime:"#",id:"#"},{...}</t>
+      <t>{pageNum:int,sum:int,activities:[{logoSrc:"#",activityName:"#",location:"#",startTime:"#",endTime:"#",id:"#",action:" "},{...}</t>
     </r>
     <r>
       <rPr>
@@ -493,206 +687,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">status_publish : unpublished,published, to_be_audited(待审核） </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>status_process : not_start, processing, finished</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>list_activity活动列表（列表中嵌套字典，一个字典就是一个活动，包含uuid_act、name_act、start_time、end_time）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>list_activity活动列表（列表中嵌套字典，一个字典就是一个活动，包含uuid_act、name_act、start_time、end_time）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>uuid_act会议uuid</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户报名活动</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>message信息</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>api/activity/createActivity/</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>api/activity/uploadFile/</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>api/personal_center/history_attend/</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>api/personal_center/history_organize/</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>api/yw/apply/</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>api/yw/collect/</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户收藏活动</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>显示最近会议</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>list_activity活动列表（包含uuid,_act name_act, start_time和end_time)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{logo:"#",name:"#",start_time:"#",end_time:"#",location:"#",organizer:"#",introduction:"#",files:[{fileName:"#",fileSrc:"#"},..],type:"#","status_process":string, status_publish:string, isHold : bool}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>api/yw/showRecent/</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>api/activity/pageDisplay/</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>api/activity/editActivity</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>编辑会议</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>delete_files:['','','',...]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">roleType:int :0-游客 1-非发布者 2-发布者 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>uuid</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>logo</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>type</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>start_time</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>end_time</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>location</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>organizer</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>introduction</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>change[{}{}{}{}...]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>查看待审核活动</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>list_activity活动列表（包含uuid_act,name_act,location,,start_time,end_time,organizer,action)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>api/yw/showActivityList/</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>显示审核修改界面</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>uuid（活动）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>name_old会议名称 name_new</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>type_old会议类型  type_new</t>
-  </si>
-  <si>
-    <t>start_time_old开始时间  start_time_new</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>end_time_old结束时间  end_time_new</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>location_old地点  location_new</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>organizer_old主办方  organizer_new</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>logo_old会议图标  logo_new</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>introduction_old会议介绍  introduction_new</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>logo_old  logo_new</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>files_new</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>api/yw/showModification</t>
+    <t>sum 活动总数</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1043,14 +1046,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G110"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
-      <selection activeCell="A100" sqref="A100"/>
+    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="D83" sqref="D83"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="37.21875" customWidth="1"/>
     <col min="2" max="2" width="15.21875" customWidth="1"/>
@@ -1058,7 +1061,7 @@
     <col min="4" max="4" width="52" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.6">
+    <row r="1" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1075,7 +1078,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -1089,7 +1092,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="14.4" customHeight="1">
+    <row r="3" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -1103,7 +1106,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>9</v>
       </c>
@@ -1111,7 +1114,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>13</v>
       </c>
@@ -1125,7 +1128,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>17</v>
       </c>
@@ -1139,12 +1142,12 @@
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D7" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>20</v>
       </c>
@@ -1158,17 +1161,17 @@
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D9" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D10" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>22</v>
       </c>
@@ -1182,7 +1185,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>15</v>
       </c>
@@ -1196,7 +1199,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
         <v>30</v>
       </c>
@@ -1204,7 +1207,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
         <v>9</v>
       </c>
@@ -1212,47 +1215,47 @@
         <v>50</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="17" spans="1:4">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="18" spans="1:4">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="19" spans="1:4">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="20" spans="1:4">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="21" spans="1:4">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="22" spans="1:4">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C22" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="23" spans="1:4">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>82</v>
       </c>
@@ -1266,7 +1269,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="24" spans="1:4">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C24" t="s">
         <v>84</v>
       </c>
@@ -1274,7 +1277,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="25" spans="1:4">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>54</v>
       </c>
@@ -1285,57 +1288,57 @@
         <v>55</v>
       </c>
     </row>
-    <row r="26" spans="1:4">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D26" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="27" spans="1:4">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D27" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="28" spans="1:4">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D28" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="29" spans="1:4">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D29" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="30" spans="1:4">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D30" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="31" spans="1:4">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D31" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="32" spans="1:4">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D32" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="33" spans="1:7">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D33" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="34" spans="1:7">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D34" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="35" spans="1:7">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D35" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="36" spans="1:7">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>57</v>
       </c>
@@ -1349,52 +1352,52 @@
         <v>56</v>
       </c>
     </row>
-    <row r="37" spans="1:7">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C37" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="38" spans="1:7">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C38" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="39" spans="1:7">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C39" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="40" spans="1:7">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C40" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="41" spans="1:7">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C41" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="42" spans="1:7">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C42" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="43" spans="1:7">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C43" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="44" spans="1:7">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C44" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="45" spans="1:7">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C45" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="46" spans="1:7">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>68</v>
       </c>
@@ -1408,72 +1411,72 @@
         <v>71</v>
       </c>
     </row>
-    <row r="47" spans="1:7">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D47" t="s">
         <v>72</v>
       </c>
       <c r="G47" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D48" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="49" spans="1:4">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D49" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D50" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="50" spans="1:4">
-      <c r="D50" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D51" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="52" spans="1:4">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D52" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="53" spans="1:4">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D53" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="54" spans="1:4">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D54" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="55" spans="1:4">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D55" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="56" spans="1:4">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D56" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="57" spans="1:4">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D57" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="58" spans="1:4">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D58" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B60" t="s">
         <v>79</v>
@@ -1482,7 +1485,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="61" spans="1:4">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C61" t="s">
         <v>73</v>
       </c>
@@ -1490,7 +1493,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="62" spans="1:4">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C62" t="s">
         <v>80</v>
       </c>
@@ -1498,39 +1501,39 @@
         <v>88</v>
       </c>
     </row>
-    <row r="63" spans="1:4">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C63" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="64" spans="1:4">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C64" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="65" spans="1:6">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C65" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="66" spans="1:6">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C66" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="67" spans="1:6">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C67" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="68" spans="1:6">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C68" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="69" spans="1:6">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B69" t="s">
         <v>89</v>
@@ -1542,7 +1545,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="70" spans="1:6">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C70" t="s">
         <v>91</v>
       </c>
@@ -1550,41 +1553,41 @@
         <v>93</v>
       </c>
     </row>
-    <row r="71" spans="1:6">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B71" t="s">
         <v>94</v>
       </c>
       <c r="D71" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D72" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="73" spans="1:6">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B73" t="s">
         <v>96</v>
       </c>
       <c r="D73" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D74" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="76" spans="1:6">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B76" t="s">
         <v>97</v>
@@ -1596,10 +1599,10 @@
         <v>101</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C77" t="s">
         <v>99</v>
       </c>
@@ -1607,7 +1610,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="78" spans="1:6">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C78" t="s">
         <v>100</v>
       </c>
@@ -1615,210 +1618,215 @@
         <v>103</v>
       </c>
     </row>
-    <row r="79" spans="1:6">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D79" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="80" spans="1:6">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D80" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="81" spans="1:4">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D81" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="82" spans="1:4">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D82" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="84" spans="1:4">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D83" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
+        <v>120</v>
+      </c>
+      <c r="B84" t="s">
+        <v>114</v>
+      </c>
+      <c r="C84" t="s">
+        <v>113</v>
+      </c>
+      <c r="D84" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
         <v>121</v>
       </c>
-      <c r="B84" t="s">
-        <v>115</v>
-      </c>
-      <c r="C84" t="s">
-        <v>114</v>
-      </c>
-      <c r="D84" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4">
-      <c r="A85" t="s">
+      <c r="B85" t="s">
         <v>122</v>
       </c>
-      <c r="B85" t="s">
-        <v>123</v>
-      </c>
       <c r="C85" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D85" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="86" spans="1:4">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B86" t="s">
+        <v>123</v>
+      </c>
+      <c r="D86" t="s">
         <v>124</v>
       </c>
-      <c r="D86" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D87" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="88" spans="1:4">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
+        <v>128</v>
+      </c>
+      <c r="B88" t="s">
         <v>129</v>
       </c>
-      <c r="B88" t="s">
+      <c r="C88" t="s">
         <v>130</v>
-      </c>
-      <c r="C88" t="s">
-        <v>131</v>
       </c>
       <c r="D88" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="89" spans="1:4">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C89" t="s">
+        <v>132</v>
+      </c>
+      <c r="D89" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C90" t="s">
         <v>133</v>
       </c>
-      <c r="D89" t="s">
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C91" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C92" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C93" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C94" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C95" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C96" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C97" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>144</v>
+      </c>
+      <c r="B98" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="90" spans="1:4">
-      <c r="C90" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
-      <c r="C91" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
-      <c r="C92" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
-      <c r="C93" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
-      <c r="C94" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
-      <c r="C95" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
-      <c r="C96" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4">
-      <c r="C97" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4">
-      <c r="A98" t="s">
-        <v>145</v>
-      </c>
-      <c r="B98" t="s">
+      <c r="D98" t="s">
         <v>143</v>
       </c>
-      <c r="D98" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D99" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="100" spans="1:4">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B100" t="s">
+        <v>145</v>
+      </c>
+      <c r="C100" t="s">
         <v>146</v>
-      </c>
-      <c r="C100" t="s">
-        <v>147</v>
       </c>
       <c r="D100" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="101" spans="1:4">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D101" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D102" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="102" spans="1:4">
-      <c r="D102" t="s">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D103" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="103" spans="1:4">
-      <c r="D103" t="s">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D104" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="104" spans="1:4">
-      <c r="D104" t="s">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D105" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="105" spans="1:4">
-      <c r="D105" t="s">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D106" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="106" spans="1:4">
-      <c r="D106" t="s">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D107" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="107" spans="1:4">
-      <c r="D107" t="s">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D108" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="108" spans="1:4">
-      <c r="D108" t="s">
+    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D109" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="109" spans="1:4">
-      <c r="D109" t="s">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D110" t="s">
         <v>156</v>
-      </c>
-    </row>
-    <row r="110" spans="1:4">
-      <c r="D110" t="s">
-        <v>157</v>
       </c>
     </row>
   </sheetData>

--- a/api分配与需要前端post以及返回的json.xlsx
+++ b/api分配与需要前端post以及返回的json.xlsx
@@ -660,8 +660,12 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>sum 活动总数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <r>
-      <t>{pageNum:int,sum:int,activities:[{logoSrc:"#",activityName:"#",location:"#",startTime:"#",endTime:"#",id:"#",action:" "},{...}</t>
+      <t>{pageNum:int,sum:int,activities:[{logoSrc:"#",activityName:"#",location:"#",startTime:"#",endTime:"#",id:"#",action:"publish,delete,modify "},{...}</t>
     </r>
     <r>
       <rPr>
@@ -684,10 +688,6 @@
       </rPr>
       <t>{...}]}</t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sum 活动总数</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1050,7 +1050,7 @@
   <dimension ref="A1:G110"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="D83" sqref="D83"/>
+      <selection activeCell="F76" sqref="F76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1599,7 +1599,7 @@
         <v>101</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.25">
@@ -1640,7 +1640,7 @@
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D83" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">

--- a/api分配与需要前端post以及返回的json.xlsx
+++ b/api分配与需要前端post以及返回的json.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\TeamDocument\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C2F2BCC-1E11-4453-957C-E5B139F5474C}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCF027DC-FAE5-4140-AC33-044E9C07A3D7}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="19440" windowHeight="15000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="163">
   <si>
     <t>url</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -684,7 +684,23 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>api/yw/showModification</t>
+    <t>api/yw/showModification/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>api/yw/getQRcode</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>返回二维码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>uuid_act</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>qrcode</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1044,10 +1060,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G110"/>
+  <dimension ref="A1:G112"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
-      <selection activeCell="A100" sqref="A100"/>
+    <sheetView tabSelected="1" topLeftCell="A91" workbookViewId="0">
+      <selection activeCell="D112" sqref="D112"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -1821,6 +1837,25 @@
         <v>157</v>
       </c>
     </row>
+    <row r="111" spans="1:4">
+      <c r="A111" t="s">
+        <v>159</v>
+      </c>
+      <c r="B111" t="s">
+        <v>160</v>
+      </c>
+      <c r="C111" t="s">
+        <v>161</v>
+      </c>
+      <c r="D111" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4">
+      <c r="D112" t="s">
+        <v>162</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/api分配与需要前端post以及返回的json.xlsx
+++ b/api分配与需要前端post以及返回的json.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\TeamDocument\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCF027DC-FAE5-4140-AC33-044E9C07A3D7}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D91AE286-4B1E-481D-9471-173DF96C555D}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -60,10 +60,6 @@
   </si>
   <si>
     <t>password</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>status登录状态</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -701,6 +697,10 @@
   </si>
   <si>
     <t>qrcode</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>status登录状态 isAdmin是否为管理员</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1062,8 +1062,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G112"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A91" workbookViewId="0">
-      <selection activeCell="D112" sqref="D112"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -1088,7 +1088,7 @@
         <v>2</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -1099,10 +1099,10 @@
         <v>6</v>
       </c>
       <c r="C2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="14.4" customHeight="1">
@@ -1116,7 +1116,7 @@
         <v>8</v>
       </c>
       <c r="D3" t="s">
-        <v>10</v>
+        <v>162</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -1124,100 +1124,100 @@
         <v>9</v>
       </c>
       <c r="D4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" t="s">
         <v>13</v>
       </c>
-      <c r="B5" t="s">
-        <v>14</v>
-      </c>
       <c r="C5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" t="s">
         <v>17</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" t="s">
         <v>18</v>
-      </c>
-      <c r="C6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D6" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="D7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8" t="s">
         <v>20</v>
       </c>
-      <c r="B8" t="s">
-        <v>21</v>
-      </c>
       <c r="C8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" t="s">
         <v>24</v>
-      </c>
-      <c r="D8" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="D9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="D10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" t="s">
         <v>22</v>
       </c>
-      <c r="B11" t="s">
-        <v>23</v>
-      </c>
       <c r="C11" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" t="s">
         <v>15</v>
       </c>
-      <c r="B12" t="s">
-        <v>16</v>
-      </c>
       <c r="C12" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D12" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="C13" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D13" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -1225,635 +1225,635 @@
         <v>9</v>
       </c>
       <c r="D14" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="C15" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="C16" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="C17" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="C18" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="C19" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="C20" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="C21" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="C22" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" t="s">
+        <v>81</v>
+      </c>
+      <c r="B23" t="s">
         <v>82</v>
-      </c>
-      <c r="B23" t="s">
-        <v>83</v>
       </c>
       <c r="C23" t="s">
         <v>8</v>
       </c>
       <c r="D23" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="C24" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D24" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" t="s">
+        <v>53</v>
+      </c>
+      <c r="B25" t="s">
+        <v>52</v>
+      </c>
+      <c r="D25" t="s">
         <v>54</v>
-      </c>
-      <c r="B25" t="s">
-        <v>53</v>
-      </c>
-      <c r="D25" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="26" spans="1:4">
       <c r="D26" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="27" spans="1:4">
       <c r="D27" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="28" spans="1:4">
       <c r="D28" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="29" spans="1:4">
       <c r="D29" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="30" spans="1:4">
       <c r="D30" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="31" spans="1:4">
       <c r="D31" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="32" spans="1:4">
       <c r="D32" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="33" spans="1:7">
       <c r="D33" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="34" spans="1:7">
       <c r="D34" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="35" spans="1:7">
       <c r="D35" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="36" spans="1:7">
       <c r="A36" t="s">
+        <v>56</v>
+      </c>
+      <c r="B36" t="s">
         <v>57</v>
       </c>
-      <c r="B36" t="s">
+      <c r="C36" t="s">
         <v>58</v>
       </c>
-      <c r="C36" t="s">
-        <v>59</v>
-      </c>
       <c r="D36" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="37" spans="1:7">
       <c r="C37" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="38" spans="1:7">
       <c r="C38" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="39" spans="1:7">
       <c r="C39" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="40" spans="1:7">
       <c r="C40" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="41" spans="1:7">
       <c r="C41" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="42" spans="1:7">
       <c r="C42" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="43" spans="1:7">
       <c r="C43" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="44" spans="1:7">
       <c r="C44" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="45" spans="1:7">
       <c r="C45" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="46" spans="1:7">
       <c r="A46" t="s">
+        <v>67</v>
+      </c>
+      <c r="B46" t="s">
         <v>68</v>
       </c>
-      <c r="B46" t="s">
+      <c r="C46" t="s">
         <v>69</v>
       </c>
-      <c r="C46" t="s">
+      <c r="D46" t="s">
         <v>70</v>
-      </c>
-      <c r="D46" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="47" spans="1:7">
       <c r="D47" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G47" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="48" spans="1:7">
       <c r="D48" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="49" spans="1:4">
       <c r="D49" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="50" spans="1:4">
       <c r="D50" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="51" spans="1:4">
       <c r="D51" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="52" spans="1:4">
       <c r="D52" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="53" spans="1:4">
       <c r="D53" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="54" spans="1:4">
       <c r="D54" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="55" spans="1:4">
       <c r="D55" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="56" spans="1:4">
       <c r="D56" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="57" spans="1:4">
       <c r="D57" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="58" spans="1:4">
       <c r="D58" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="60" spans="1:4">
       <c r="A60" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B60" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C60" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="61" spans="1:4">
       <c r="C61" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D61" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="62" spans="1:4">
       <c r="C62" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D62" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="63" spans="1:4">
       <c r="C63" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="64" spans="1:4">
       <c r="C64" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="65" spans="1:6">
       <c r="C65" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="66" spans="1:6">
       <c r="C66" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="67" spans="1:6">
       <c r="C67" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="68" spans="1:6">
       <c r="C68" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="69" spans="1:6">
       <c r="A69" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B69" t="s">
+        <v>88</v>
+      </c>
+      <c r="C69" t="s">
         <v>89</v>
       </c>
-      <c r="C69" t="s">
-        <v>90</v>
-      </c>
       <c r="D69" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="70" spans="1:6">
       <c r="C70" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D70" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="71" spans="1:6">
       <c r="A71" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B71" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D71" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="72" spans="1:6">
       <c r="D72" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="73" spans="1:6">
       <c r="A73" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B73" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D73" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="74" spans="1:6">
       <c r="D74" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="76" spans="1:6">
       <c r="A76" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B76" t="s">
+        <v>96</v>
+      </c>
+      <c r="C76" t="s">
         <v>97</v>
       </c>
-      <c r="C76" t="s">
-        <v>98</v>
-      </c>
       <c r="D76" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="77" spans="1:6">
       <c r="C77" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D77" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="78" spans="1:6">
       <c r="C78" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="79" spans="1:6">
       <c r="D79" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="80" spans="1:6">
       <c r="D80" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="81" spans="1:4">
       <c r="D81" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="82" spans="1:4">
       <c r="D82" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="84" spans="1:4">
       <c r="A84" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B84" t="s">
+        <v>114</v>
+      </c>
+      <c r="C84" t="s">
+        <v>113</v>
+      </c>
+      <c r="D84" t="s">
         <v>115</v>
-      </c>
-      <c r="C84" t="s">
-        <v>114</v>
-      </c>
-      <c r="D84" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="85" spans="1:4">
       <c r="A85" t="s">
+        <v>121</v>
+      </c>
+      <c r="B85" t="s">
         <v>122</v>
       </c>
-      <c r="B85" t="s">
-        <v>123</v>
-      </c>
       <c r="C85" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D85" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="86" spans="1:4">
       <c r="A86" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B86" t="s">
+        <v>123</v>
+      </c>
+      <c r="D86" t="s">
         <v>124</v>
-      </c>
-      <c r="D86" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="87" spans="1:4">
       <c r="D87" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="88" spans="1:4">
       <c r="A88" t="s">
+        <v>128</v>
+      </c>
+      <c r="B88" t="s">
         <v>129</v>
       </c>
-      <c r="B88" t="s">
+      <c r="C88" t="s">
         <v>130</v>
       </c>
-      <c r="C88" t="s">
-        <v>131</v>
-      </c>
       <c r="D88" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="89" spans="1:4">
       <c r="C89" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D89" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="90" spans="1:4">
       <c r="C90" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="91" spans="1:4">
       <c r="C91" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="92" spans="1:4">
       <c r="C92" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="93" spans="1:4">
       <c r="C93" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="94" spans="1:4">
       <c r="C94" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="95" spans="1:4">
       <c r="C95" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="96" spans="1:4">
       <c r="C96" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="97" spans="1:4">
       <c r="C97" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="98" spans="1:4">
       <c r="A98" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B98" t="s">
+        <v>142</v>
+      </c>
+      <c r="D98" t="s">
         <v>143</v>
-      </c>
-      <c r="D98" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="99" spans="1:4">
       <c r="D99" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="100" spans="1:4">
       <c r="A100" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B100" t="s">
+        <v>145</v>
+      </c>
+      <c r="C100" t="s">
         <v>146</v>
       </c>
-      <c r="C100" t="s">
-        <v>147</v>
-      </c>
       <c r="D100" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="101" spans="1:4">
       <c r="D101" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="102" spans="1:4">
       <c r="D102" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="103" spans="1:4">
       <c r="D103" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="104" spans="1:4">
       <c r="D104" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="105" spans="1:4">
       <c r="D105" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="106" spans="1:4">
       <c r="D106" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="107" spans="1:4">
       <c r="D107" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="108" spans="1:4">
       <c r="D108" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="109" spans="1:4">
       <c r="D109" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="110" spans="1:4">
       <c r="D110" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="111" spans="1:4">
       <c r="A111" t="s">
+        <v>158</v>
+      </c>
+      <c r="B111" t="s">
         <v>159</v>
       </c>
-      <c r="B111" t="s">
+      <c r="C111" t="s">
         <v>160</v>
       </c>
-      <c r="C111" t="s">
-        <v>161</v>
-      </c>
       <c r="D111" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="112" spans="1:4">
       <c r="D112" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
   </sheetData>

--- a/api分配与需要前端post以及返回的json.xlsx
+++ b/api分配与需要前端post以及返回的json.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\TeamDocument\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yang\Desktop\TeamDocument\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D91AE286-4B1E-481D-9471-173DF96C555D}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="176">
   <si>
     <t>url</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -703,12 +702,64 @@
     <t>status登录状态 isAdmin是否为管理员</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>POST</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>方法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>POST</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GET</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>POST</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>POST</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GET</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>POST</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>POST</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GET</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GET</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>POST</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GET</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1059,800 +1110,857 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G112"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H112"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="37.21875" customWidth="1"/>
-    <col min="2" max="2" width="15.21875" customWidth="1"/>
-    <col min="3" max="3" width="24.6640625" customWidth="1"/>
-    <col min="4" max="4" width="52" customWidth="1"/>
+    <col min="2" max="2" width="37.21875" customWidth="1"/>
+    <col min="3" max="3" width="15.21875" customWidth="1"/>
+    <col min="4" max="4" width="24.6640625" customWidth="1"/>
+    <col min="5" max="5" width="52" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.6">
+    <row r="1" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
-      <c r="A2" t="s">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
         <v>4</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>6</v>
-      </c>
-      <c r="C2" t="s">
-        <v>11</v>
       </c>
       <c r="D2" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" ht="14.4" customHeight="1">
+      <c r="E2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>165</v>
+      </c>
+      <c r="B3" t="s">
         <v>5</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>7</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>8</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
-      <c r="C4" t="s">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D4" t="s">
         <v>9</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
-      <c r="A5" t="s">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
         <v>12</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
         <v>13</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>11</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>166</v>
+      </c>
+      <c r="B6" t="s">
         <v>16</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C6" t="s">
         <v>17</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
         <v>11</v>
       </c>
-      <c r="D6" t="s">
+      <c r="E6" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
-      <c r="D7" t="s">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E7" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
+        <v>167</v>
+      </c>
+      <c r="B8" t="s">
         <v>19</v>
       </c>
-      <c r="B8" t="s">
+      <c r="C8" t="s">
         <v>20</v>
       </c>
-      <c r="C8" t="s">
+      <c r="D8" t="s">
         <v>23</v>
       </c>
-      <c r="D8" t="s">
+      <c r="E8" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
-      <c r="D9" t="s">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E9" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
-      <c r="D10" t="s">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E10" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
+        <v>168</v>
+      </c>
+      <c r="B11" t="s">
         <v>21</v>
       </c>
-      <c r="B11" t="s">
+      <c r="C11" t="s">
         <v>22</v>
       </c>
-      <c r="C11" t="s">
+      <c r="D11" t="s">
         <v>27</v>
       </c>
-      <c r="D11" t="s">
+      <c r="E11" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
+        <v>163</v>
+      </c>
+      <c r="B12" t="s">
         <v>14</v>
       </c>
-      <c r="B12" t="s">
+      <c r="C12" t="s">
         <v>15</v>
       </c>
-      <c r="C12" t="s">
+      <c r="D12" t="s">
         <v>28</v>
       </c>
-      <c r="D12" t="s">
+      <c r="E12" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
-      <c r="C13" t="s">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D13" t="s">
         <v>29</v>
       </c>
-      <c r="D13" t="s">
+      <c r="E13" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
-      <c r="C14" t="s">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D14" t="s">
         <v>9</v>
       </c>
-      <c r="D14" t="s">
+      <c r="E14" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
-      <c r="C15" t="s">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D15" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
-      <c r="C16" t="s">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D16" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="17" spans="1:4">
-      <c r="C17" t="s">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D17" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="18" spans="1:4">
-      <c r="C18" t="s">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D18" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="19" spans="1:4">
-      <c r="C19" t="s">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D19" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="20" spans="1:4">
-      <c r="C20" t="s">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D20" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="21" spans="1:4">
-      <c r="C21" t="s">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D21" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="22" spans="1:4">
-      <c r="C22" t="s">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D22" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="23" spans="1:4">
-      <c r="A23" t="s">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B23" t="s">
         <v>81</v>
       </c>
-      <c r="B23" t="s">
+      <c r="C23" t="s">
         <v>82</v>
       </c>
-      <c r="C23" t="s">
+      <c r="D23" t="s">
         <v>8</v>
       </c>
-      <c r="D23" t="s">
+      <c r="E23" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="24" spans="1:4">
-      <c r="C24" t="s">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D24" t="s">
         <v>83</v>
       </c>
-      <c r="D24" t="s">
+      <c r="E24" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="25" spans="1:4">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
+        <v>169</v>
+      </c>
+      <c r="B25" t="s">
         <v>53</v>
       </c>
-      <c r="B25" t="s">
+      <c r="C25" t="s">
         <v>52</v>
       </c>
-      <c r="D25" t="s">
+      <c r="E25" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="26" spans="1:4">
-      <c r="D26" t="s">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E26" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="27" spans="1:4">
-      <c r="D27" t="s">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E27" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="28" spans="1:4">
-      <c r="D28" t="s">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E28" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="29" spans="1:4">
-      <c r="D29" t="s">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E29" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="30" spans="1:4">
-      <c r="D30" t="s">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E30" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="31" spans="1:4">
-      <c r="D31" t="s">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E31" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="32" spans="1:4">
-      <c r="D32" t="s">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E32" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="33" spans="1:7">
-      <c r="D33" t="s">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="E33" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="34" spans="1:7">
-      <c r="D34" t="s">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="E34" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="35" spans="1:7">
-      <c r="D35" t="s">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="E35" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="36" spans="1:7">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
+        <v>170</v>
+      </c>
+      <c r="B36" t="s">
         <v>56</v>
       </c>
-      <c r="B36" t="s">
+      <c r="C36" t="s">
         <v>57</v>
       </c>
-      <c r="C36" t="s">
+      <c r="D36" t="s">
         <v>58</v>
       </c>
-      <c r="D36" t="s">
+      <c r="E36" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="37" spans="1:7">
-      <c r="C37" t="s">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D37" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="38" spans="1:7">
-      <c r="C38" t="s">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D38" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="39" spans="1:7">
-      <c r="C39" t="s">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D39" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="40" spans="1:7">
-      <c r="C40" t="s">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D40" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="41" spans="1:7">
-      <c r="C41" t="s">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D41" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="42" spans="1:7">
-      <c r="C42" t="s">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D42" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="43" spans="1:7">
-      <c r="C43" t="s">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D43" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="44" spans="1:7">
-      <c r="C44" t="s">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D44" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="45" spans="1:7">
-      <c r="C45" t="s">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D45" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="46" spans="1:7">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
+        <v>166</v>
+      </c>
+      <c r="B46" t="s">
         <v>67</v>
       </c>
-      <c r="B46" t="s">
+      <c r="C46" t="s">
         <v>68</v>
       </c>
-      <c r="C46" t="s">
+      <c r="D46" t="s">
         <v>69</v>
       </c>
-      <c r="D46" t="s">
+      <c r="E46" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="47" spans="1:7">
-      <c r="D47" t="s">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="E47" t="s">
         <v>71</v>
       </c>
-      <c r="G47" t="s">
+      <c r="H47" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="48" spans="1:7">
-      <c r="D48" t="s">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="E48" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="49" spans="1:4">
-      <c r="D49" t="s">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E49" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="50" spans="1:4">
-      <c r="D50" t="s">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E50" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="51" spans="1:4">
-      <c r="D51" t="s">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E51" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="52" spans="1:4">
-      <c r="D52" t="s">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E52" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="53" spans="1:4">
-      <c r="D53" t="s">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E53" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="54" spans="1:4">
-      <c r="D54" t="s">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E54" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="55" spans="1:4">
-      <c r="D55" t="s">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E55" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="56" spans="1:4">
-      <c r="D56" t="s">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E56" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="57" spans="1:4">
-      <c r="D57" t="s">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E57" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="58" spans="1:4">
-      <c r="D58" t="s">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E58" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="60" spans="1:4">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
+        <v>171</v>
+      </c>
+      <c r="B60" t="s">
         <v>116</v>
       </c>
-      <c r="B60" t="s">
+      <c r="C60" t="s">
         <v>78</v>
       </c>
-      <c r="C60" t="s">
+      <c r="D60" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="61" spans="1:4">
-      <c r="C61" t="s">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D61" t="s">
         <v>72</v>
       </c>
-      <c r="D61" t="s">
+      <c r="E61" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="62" spans="1:4">
-      <c r="C62" t="s">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D62" t="s">
         <v>79</v>
       </c>
-      <c r="D62" t="s">
+      <c r="E62" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="63" spans="1:4">
-      <c r="C63" t="s">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D63" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="64" spans="1:4">
-      <c r="C64" t="s">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D64" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="65" spans="1:6">
-      <c r="C65" t="s">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D65" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="66" spans="1:6">
-      <c r="C66" t="s">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D66" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="67" spans="1:6">
-      <c r="C67" t="s">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D67" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="68" spans="1:6">
-      <c r="C68" t="s">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D68" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="69" spans="1:6">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
+        <v>163</v>
+      </c>
+      <c r="B69" t="s">
         <v>117</v>
       </c>
-      <c r="B69" t="s">
+      <c r="C69" t="s">
         <v>88</v>
       </c>
-      <c r="C69" t="s">
+      <c r="D69" t="s">
         <v>89</v>
       </c>
-      <c r="D69" t="s">
+      <c r="E69" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="70" spans="1:6">
-      <c r="C70" t="s">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D70" t="s">
         <v>90</v>
       </c>
-      <c r="D70" t="s">
+      <c r="E70" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="71" spans="1:6">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
+        <v>166</v>
+      </c>
+      <c r="B71" t="s">
         <v>118</v>
       </c>
-      <c r="B71" t="s">
+      <c r="C71" t="s">
         <v>93</v>
       </c>
-      <c r="D71" t="s">
+      <c r="E71" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="72" spans="1:6">
-      <c r="D72" t="s">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E72" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="73" spans="1:6">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
+        <v>172</v>
+      </c>
+      <c r="B73" t="s">
         <v>119</v>
       </c>
-      <c r="B73" t="s">
+      <c r="C73" t="s">
         <v>95</v>
       </c>
-      <c r="D73" t="s">
+      <c r="E73" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="74" spans="1:6">
-      <c r="D74" t="s">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E74" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="76" spans="1:6">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
+        <v>173</v>
+      </c>
+      <c r="B76" t="s">
         <v>127</v>
       </c>
-      <c r="B76" t="s">
+      <c r="C76" t="s">
         <v>96</v>
       </c>
-      <c r="C76" t="s">
+      <c r="D76" t="s">
         <v>97</v>
       </c>
-      <c r="D76" t="s">
+      <c r="E76" t="s">
         <v>100</v>
       </c>
-      <c r="F76" s="2" t="s">
+      <c r="G76" s="2" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="77" spans="1:6">
-      <c r="C77" t="s">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D77" t="s">
         <v>98</v>
       </c>
-      <c r="D77" t="s">
+      <c r="E77" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="78" spans="1:6">
-      <c r="C78" t="s">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D78" t="s">
         <v>99</v>
       </c>
-      <c r="D78" s="2" t="s">
+      <c r="E78" s="2" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="79" spans="1:6">
-      <c r="D79" t="s">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E79" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="80" spans="1:6">
-      <c r="D80" t="s">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E80" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="81" spans="1:4">
-      <c r="D81" t="s">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E81" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="82" spans="1:4">
-      <c r="D82" t="s">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E82" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="84" spans="1:4">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
+        <v>174</v>
+      </c>
+      <c r="B84" t="s">
         <v>120</v>
       </c>
-      <c r="B84" t="s">
+      <c r="C84" t="s">
         <v>114</v>
       </c>
-      <c r="C84" t="s">
+      <c r="D84" t="s">
         <v>113</v>
       </c>
-      <c r="D84" t="s">
+      <c r="E84" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="85" spans="1:4">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
+        <v>174</v>
+      </c>
+      <c r="B85" t="s">
         <v>121</v>
       </c>
-      <c r="B85" t="s">
+      <c r="C85" t="s">
         <v>122</v>
       </c>
-      <c r="C85" t="s">
+      <c r="D85" t="s">
         <v>113</v>
       </c>
-      <c r="D85" t="s">
+      <c r="E85" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="86" spans="1:4">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
+        <v>175</v>
+      </c>
+      <c r="B86" t="s">
         <v>126</v>
       </c>
-      <c r="B86" t="s">
+      <c r="C86" t="s">
         <v>123</v>
       </c>
-      <c r="D86" t="s">
+      <c r="E86" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="87" spans="1:4">
-      <c r="D87" t="s">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E87" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="88" spans="1:4">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
+        <v>163</v>
+      </c>
+      <c r="B88" t="s">
         <v>128</v>
       </c>
-      <c r="B88" t="s">
+      <c r="C88" t="s">
         <v>129</v>
       </c>
-      <c r="C88" t="s">
+      <c r="D88" t="s">
         <v>130</v>
       </c>
-      <c r="D88" t="s">
+      <c r="E88" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="89" spans="1:4">
-      <c r="C89" t="s">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D89" t="s">
         <v>132</v>
       </c>
-      <c r="D89" t="s">
+      <c r="E89" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="90" spans="1:4">
-      <c r="C90" t="s">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D90" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="91" spans="1:4">
-      <c r="C91" t="s">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D91" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="92" spans="1:4">
-      <c r="C92" t="s">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D92" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="93" spans="1:4">
-      <c r="C93" t="s">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D93" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="94" spans="1:4">
-      <c r="C94" t="s">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D94" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="95" spans="1:4">
-      <c r="C95" t="s">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D95" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="96" spans="1:4">
-      <c r="C96" t="s">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D96" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="97" spans="1:4">
-      <c r="C97" t="s">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D97" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="98" spans="1:4">
-      <c r="A98" t="s">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B98" t="s">
         <v>144</v>
       </c>
-      <c r="B98" t="s">
+      <c r="C98" t="s">
         <v>142</v>
       </c>
-      <c r="D98" t="s">
+      <c r="E98" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="99" spans="1:4">
-      <c r="D99" t="s">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E99" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="100" spans="1:4">
-      <c r="A100" t="s">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B100" t="s">
         <v>157</v>
       </c>
-      <c r="B100" t="s">
+      <c r="C100" t="s">
         <v>145</v>
       </c>
-      <c r="C100" t="s">
+      <c r="D100" t="s">
         <v>146</v>
       </c>
-      <c r="D100" t="s">
+      <c r="E100" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="101" spans="1:4">
-      <c r="D101" t="s">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E101" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="102" spans="1:4">
-      <c r="D102" t="s">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E102" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="103" spans="1:4">
-      <c r="D103" t="s">
+    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E103" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="104" spans="1:4">
-      <c r="D104" t="s">
+    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E104" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="105" spans="1:4">
-      <c r="D105" t="s">
+    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E105" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="106" spans="1:4">
-      <c r="D106" t="s">
+    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E106" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="107" spans="1:4">
-      <c r="D107" t="s">
+    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E107" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="108" spans="1:4">
-      <c r="D108" t="s">
+    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E108" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="109" spans="1:4">
-      <c r="D109" t="s">
+    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E109" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="110" spans="1:4">
-      <c r="D110" t="s">
+    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E110" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="111" spans="1:4">
+    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
+        <v>175</v>
+      </c>
+      <c r="B111" t="s">
         <v>158</v>
       </c>
-      <c r="B111" t="s">
+      <c r="C111" t="s">
         <v>159</v>
       </c>
-      <c r="C111" t="s">
+      <c r="D111" t="s">
         <v>160</v>
       </c>
-      <c r="D111" t="s">
+      <c r="E111" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="112" spans="1:4">
-      <c r="D112" t="s">
+    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E112" t="s">
         <v>161</v>
       </c>
     </row>

--- a/api分配与需要前端post以及返回的json.xlsx
+++ b/api分配与需要前端post以及返回的json.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\TeamDocument\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D91AE286-4B1E-481D-9471-173DF96C555D}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F77CBEDA-753B-4F72-A892-EE839FA15908}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="19440" windowHeight="15000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="168">
   <si>
     <t>url</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -549,10 +549,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>list_activity活动列表（包含uuid,_act name_act, start_time和end_time)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>{logo:"#",name:"#",start_time:"#",end_time:"#",location:"#",organizer:"#",introduction:"#",files:[{fileName:"#",fileSrc:"#"},..],type:"#","status_process":string, status_publish:string, isHold : bool}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -701,6 +697,30 @@
   </si>
   <si>
     <t>status登录状态 isAdmin是否为管理员</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>api/yw/add_in_recommendation</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>加入推荐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>uuid_act</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>api/yw/showRecommendation</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>展示推荐活动</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>list_activity活动列表（包含uuid,_act name_act, start_time,end_time,logo和location)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1060,10 +1080,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G112"/>
+  <dimension ref="A1:G115"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView tabSelected="1" topLeftCell="A97" workbookViewId="0">
+      <selection activeCell="D118" sqref="D118"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -1116,7 +1136,7 @@
         <v>8</v>
       </c>
       <c r="D3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -1429,7 +1449,7 @@
         <v>71</v>
       </c>
       <c r="G47" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="48" spans="1:7">
@@ -1484,7 +1504,7 @@
     </row>
     <row r="58" spans="1:4">
       <c r="D58" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="60" spans="1:4">
@@ -1600,7 +1620,7 @@
     </row>
     <row r="76" spans="1:6">
       <c r="A76" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B76" t="s">
         <v>96</v>
@@ -1681,13 +1701,13 @@
     </row>
     <row r="86" spans="1:4">
       <c r="A86" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B86" t="s">
         <v>123</v>
       </c>
       <c r="D86" t="s">
-        <v>124</v>
+        <v>167</v>
       </c>
     </row>
     <row r="87" spans="1:4">
@@ -1697,13 +1717,13 @@
     </row>
     <row r="88" spans="1:4">
       <c r="A88" t="s">
+        <v>127</v>
+      </c>
+      <c r="B88" t="s">
         <v>128</v>
       </c>
-      <c r="B88" t="s">
+      <c r="C88" t="s">
         <v>129</v>
-      </c>
-      <c r="C88" t="s">
-        <v>130</v>
       </c>
       <c r="D88" t="s">
         <v>26</v>
@@ -1711,61 +1731,61 @@
     </row>
     <row r="89" spans="1:4">
       <c r="C89" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D89" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="90" spans="1:4">
       <c r="C90" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="91" spans="1:4">
       <c r="C91" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="92" spans="1:4">
       <c r="C92" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="93" spans="1:4">
       <c r="C93" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="94" spans="1:4">
       <c r="C94" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="95" spans="1:4">
       <c r="C95" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="96" spans="1:4">
       <c r="C96" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="97" spans="1:4">
       <c r="C97" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="98" spans="1:4">
       <c r="A98" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B98" t="s">
+        <v>141</v>
+      </c>
+      <c r="D98" t="s">
         <v>142</v>
-      </c>
-      <c r="D98" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="99" spans="1:4">
@@ -1775,13 +1795,13 @@
     </row>
     <row r="100" spans="1:4">
       <c r="A100" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B100" t="s">
+        <v>144</v>
+      </c>
+      <c r="C100" t="s">
         <v>145</v>
-      </c>
-      <c r="C100" t="s">
-        <v>146</v>
       </c>
       <c r="D100" t="s">
         <v>26</v>
@@ -1789,63 +1809,63 @@
     </row>
     <row r="101" spans="1:4">
       <c r="D101" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="102" spans="1:4">
       <c r="D102" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="103" spans="1:4">
       <c r="D103" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="104" spans="1:4">
       <c r="D104" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="105" spans="1:4">
       <c r="D105" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="106" spans="1:4">
       <c r="D106" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="107" spans="1:4">
       <c r="D107" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="108" spans="1:4">
       <c r="D108" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="109" spans="1:4">
       <c r="D109" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="110" spans="1:4">
       <c r="D110" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="111" spans="1:4">
       <c r="A111" t="s">
+        <v>157</v>
+      </c>
+      <c r="B111" t="s">
         <v>158</v>
       </c>
-      <c r="B111" t="s">
+      <c r="C111" t="s">
         <v>159</v>
-      </c>
-      <c r="C111" t="s">
-        <v>160</v>
       </c>
       <c r="D111" t="s">
         <v>26</v>
@@ -1853,7 +1873,37 @@
     </row>
     <row r="112" spans="1:4">
       <c r="D112" t="s">
-        <v>161</v>
+        <v>160</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4">
+      <c r="A113" t="s">
+        <v>162</v>
+      </c>
+      <c r="B113" t="s">
+        <v>163</v>
+      </c>
+      <c r="C113" t="s">
+        <v>164</v>
+      </c>
+      <c r="D113" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4">
+      <c r="A114" t="s">
+        <v>165</v>
+      </c>
+      <c r="B114" t="s">
+        <v>166</v>
+      </c>
+      <c r="D114" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4">
+      <c r="D115" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>

--- a/api分配与需要前端post以及返回的json.xlsx
+++ b/api分配与需要前端post以及返回的json.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\TeamDocument\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F77CBEDA-753B-4F72-A892-EE839FA15908}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA885992-4D0C-4FB2-8672-CEA59908A84F}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="19440" windowHeight="15000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="171">
   <si>
     <t>url</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -680,10 +680,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>api/yw/getQRcode</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>返回二维码</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -700,10 +696,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>api/yw/add_in_recommendation</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>加入推荐</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -712,15 +704,35 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>api/yw/showRecommendation</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>展示推荐活动</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>list_activity活动列表（包含uuid,_act name_act, start_time,end_time,logo和location)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>api/yw/search/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>api/yw/getQRcode/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>api/yw/add_in_recommendation/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>api/yw/showRecommendation/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>根据关键词搜索</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>keyword</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1080,10 +1092,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G115"/>
+  <dimension ref="A1:G117"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A97" workbookViewId="0">
-      <selection activeCell="D118" sqref="D118"/>
+      <selection activeCell="D116" sqref="D116:D117"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -1136,7 +1148,7 @@
         <v>8</v>
       </c>
       <c r="D3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -1707,7 +1719,7 @@
         <v>123</v>
       </c>
       <c r="D86" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
     </row>
     <row r="87" spans="1:4">
@@ -1859,13 +1871,13 @@
     </row>
     <row r="111" spans="1:4">
       <c r="A111" t="s">
+        <v>166</v>
+      </c>
+      <c r="B111" t="s">
         <v>157</v>
       </c>
-      <c r="B111" t="s">
+      <c r="C111" t="s">
         <v>158</v>
-      </c>
-      <c r="C111" t="s">
-        <v>159</v>
       </c>
       <c r="D111" t="s">
         <v>26</v>
@@ -1873,18 +1885,18 @@
     </row>
     <row r="112" spans="1:4">
       <c r="D112" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="113" spans="1:4">
       <c r="A113" t="s">
+        <v>167</v>
+      </c>
+      <c r="B113" t="s">
+        <v>161</v>
+      </c>
+      <c r="C113" t="s">
         <v>162</v>
-      </c>
-      <c r="B113" t="s">
-        <v>163</v>
-      </c>
-      <c r="C113" t="s">
-        <v>164</v>
       </c>
       <c r="D113" t="s">
         <v>26</v>
@@ -1892,17 +1904,36 @@
     </row>
     <row r="114" spans="1:4">
       <c r="A114" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="B114" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="D114" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
     </row>
     <row r="115" spans="1:4">
       <c r="D115" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4">
+      <c r="A116" t="s">
+        <v>165</v>
+      </c>
+      <c r="B116" t="s">
+        <v>169</v>
+      </c>
+      <c r="C116" t="s">
+        <v>170</v>
+      </c>
+      <c r="D116" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4">
+      <c r="D117" t="s">
         <v>26</v>
       </c>
     </row>

--- a/api分配与需要前端post以及返回的json.xlsx
+++ b/api分配与需要前端post以及返回的json.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\TeamDocument\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA885992-4D0C-4FB2-8672-CEA59908A84F}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89924CC0-CDFC-4CE8-9416-144C14A37FA4}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="19440" windowHeight="15000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="175">
   <si>
     <t>url</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -733,6 +733,22 @@
   </si>
   <si>
     <t>keyword</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>api/yw/cancelApply/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>api/yw/cancelCollect</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户取消报名活动</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户取消收藏活动</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1092,10 +1108,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G117"/>
+  <dimension ref="A1:G119"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A97" workbookViewId="0">
-      <selection activeCell="D116" sqref="D116:D117"/>
+      <selection activeCell="B121" sqref="B121"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -1937,6 +1953,34 @@
         <v>26</v>
       </c>
     </row>
+    <row r="118" spans="1:4">
+      <c r="A118" t="s">
+        <v>171</v>
+      </c>
+      <c r="B118" t="s">
+        <v>173</v>
+      </c>
+      <c r="C118" t="s">
+        <v>113</v>
+      </c>
+      <c r="D118" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4">
+      <c r="A119" t="s">
+        <v>172</v>
+      </c>
+      <c r="B119" t="s">
+        <v>174</v>
+      </c>
+      <c r="C119" t="s">
+        <v>113</v>
+      </c>
+      <c r="D119" t="s">
+        <v>26</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/api分配与需要前端post以及返回的json.xlsx
+++ b/api分配与需要前端post以及返回的json.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\TeamDocument\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TEAMDOCUNMENT\TeamDocument\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89924CC0-CDFC-4CE8-9416-144C14A37FA4}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B45CC549-65C2-4524-A4FF-5F1ACCB93A52}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="19440" windowHeight="15000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="188">
   <si>
     <t>url</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -561,194 +561,246 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>api/activity/editActivity</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>编辑会议</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>delete_files:['','','',...]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve">roleType:int :0-游客 1-非发布者 2-发布者 </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>查看待审核活动</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>list_activity活动列表（包含uuid_act,name_act,location,,start_time,end_time,organizer,action)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>api/yw/showActivityList/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>显示审核修改界面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>uuid（活动）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>name_old会议名称 name_new</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>type_old会议类型  type_new</t>
+  </si>
+  <si>
+    <t>start_time_old开始时间  start_time_new</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>end_time_old结束时间  end_time_new</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>location_old地点  location_new</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>organizer_old主办方  organizer_new</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>logo_old会议图标  logo_new</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>introduction_old会议介绍  introduction_new</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>logo_old  logo_new</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>files_new</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>api/yw/showModification/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>返回二维码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>uuid_act</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>qrcode</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>status登录状态 isAdmin是否为管理员</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>加入推荐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>uuid_act</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>展示推荐活动</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>list_activity活动列表（包含uuid,_act name_act, start_time,end_time,logo和location)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>api/yw/search/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>api/yw/getQRcode/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>api/yw/add_in_recommendation/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>api/yw/showRecommendation/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>根据关键词搜索</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>keyword</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>api/yw/cancelApply/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户取消报名活动</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户取消收藏活动</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户编辑会议</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_uuid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>logo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>delete_file</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>name，time，location等修改信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_status活动状态是否改变</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>api/activity/adminAgreeEdit/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>api/activity/editActivity/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>api/yw/cancelCollect/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>管理员同意修改请求</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>uuid</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>logo</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>type</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>start_time</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>end_time</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>location</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>organizer</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>introduction</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>change[{}{}{}{}...]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>查看待审核活动</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>list_activity活动列表（包含uuid_act,name_act,location,,start_time,end_time,organizer,action)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>api/yw/showActivityList/</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>显示审核修改界面</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>uuid（活动）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>name_old会议名称 name_new</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>type_old会议类型  type_new</t>
-  </si>
-  <si>
-    <t>start_time_old开始时间  start_time_new</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>end_time_old结束时间  end_time_new</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>location_old地点  location_new</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>organizer_old主办方  organizer_new</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>logo_old会议图标  logo_new</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>introduction_old会议介绍  introduction_new</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>logo_old  logo_new</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>files_new</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>api/yw/showModification/</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>返回二维码</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>uuid_act</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>qrcode</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>status登录状态 isAdmin是否为管理员</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>加入推荐</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>uuid_act</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>展示推荐活动</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>list_activity活动列表（包含uuid,_act name_act, start_time,end_time,logo和location)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>api/yw/search/</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>api/yw/getQRcode/</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>api/yw/add_in_recommendation/</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>api/yw/showRecommendation/</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>根据关键词搜索</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>keyword</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>api/yw/cancelApply/</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>api/yw/cancelCollect</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户取消报名活动</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户取消收藏活动</t>
+    <t>管理员拒绝修改请求</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>api/activity/adminRefuseEdit/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>api/activity/deletaActivity/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户删除会议</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>api/activity/adminAgreeDelete/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>api/activity/adminRefuseDelete/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>管理员同意删除请求</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>管理员拒绝删除请求</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>api/activity/publishActivity/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户发布会议</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>api/activity/adminAgreePublish/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>api/activity/adminRefusePublish/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>管理员同意发布请求</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>管理员拒绝发布请求</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>api/activity/cancelApplication/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户撤回申请</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1108,10 +1160,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G119"/>
+  <dimension ref="A1:G125"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A97" workbookViewId="0">
-      <selection activeCell="B121" sqref="B121"/>
+    <sheetView tabSelected="1" topLeftCell="A106" workbookViewId="0">
+      <selection activeCell="G114" sqref="G114"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -1164,7 +1216,7 @@
         <v>8</v>
       </c>
       <c r="D3" t="s">
-        <v>160</v>
+        <v>147</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -1532,7 +1584,7 @@
     </row>
     <row r="58" spans="1:4">
       <c r="D58" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
     </row>
     <row r="60" spans="1:4">
@@ -1735,7 +1787,7 @@
         <v>123</v>
       </c>
       <c r="D86" t="s">
-        <v>164</v>
+        <v>151</v>
       </c>
     </row>
     <row r="87" spans="1:4">
@@ -1745,207 +1797,252 @@
     </row>
     <row r="88" spans="1:4">
       <c r="A88" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="B88" t="s">
         <v>128</v>
       </c>
-      <c r="C88" t="s">
+      <c r="D88" t="s">
         <v>129</v>
       </c>
-      <c r="D88" t="s">
+    </row>
+    <row r="89" spans="1:4">
+      <c r="D89" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="89" spans="1:4">
-      <c r="C89" t="s">
+    <row r="90" spans="1:4">
+      <c r="A90" t="s">
+        <v>143</v>
+      </c>
+      <c r="B90" t="s">
         <v>131</v>
       </c>
-      <c r="D89" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
       <c r="C90" t="s">
         <v>132</v>
       </c>
+      <c r="D90" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="91" spans="1:4">
-      <c r="C91" t="s">
+      <c r="D91" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="92" spans="1:4">
-      <c r="C92" t="s">
+      <c r="D92" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="93" spans="1:4">
-      <c r="C93" t="s">
+      <c r="D93" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="94" spans="1:4">
-      <c r="C94" t="s">
+      <c r="D94" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="95" spans="1:4">
-      <c r="C95" t="s">
+      <c r="D95" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="96" spans="1:4">
-      <c r="C96" t="s">
+      <c r="D96" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="97" spans="1:4">
-      <c r="C97" t="s">
+      <c r="D97" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="98" spans="1:4">
-      <c r="A98" t="s">
-        <v>143</v>
-      </c>
-      <c r="B98" t="s">
-        <v>141</v>
-      </c>
       <c r="D98" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="99" spans="1:4">
       <c r="D99" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4">
+      <c r="D100" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4">
+      <c r="A101" t="s">
+        <v>153</v>
+      </c>
+      <c r="B101" t="s">
+        <v>144</v>
+      </c>
+      <c r="C101" t="s">
+        <v>145</v>
+      </c>
+      <c r="D101" t="s">
         <v>26</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4">
-      <c r="A100" t="s">
-        <v>156</v>
-      </c>
-      <c r="B100" t="s">
-        <v>144</v>
-      </c>
-      <c r="C100" t="s">
-        <v>145</v>
-      </c>
-      <c r="D100" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4">
-      <c r="D101" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="102" spans="1:4">
       <c r="D102" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="103" spans="1:4">
+      <c r="A103" t="s">
+        <v>154</v>
+      </c>
+      <c r="B103" t="s">
+        <v>148</v>
+      </c>
+      <c r="C103" t="s">
+        <v>149</v>
+      </c>
       <c r="D103" t="s">
-        <v>148</v>
+        <v>26</v>
       </c>
     </row>
     <row r="104" spans="1:4">
+      <c r="A104" t="s">
+        <v>155</v>
+      </c>
+      <c r="B104" t="s">
+        <v>150</v>
+      </c>
       <c r="D104" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
     </row>
     <row r="105" spans="1:4">
       <c r="D105" t="s">
-        <v>150</v>
+        <v>26</v>
       </c>
     </row>
     <row r="106" spans="1:4">
+      <c r="A106" t="s">
+        <v>152</v>
+      </c>
+      <c r="B106" t="s">
+        <v>156</v>
+      </c>
+      <c r="C106" t="s">
+        <v>157</v>
+      </c>
       <c r="D106" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="107" spans="1:4">
       <c r="D107" t="s">
-        <v>152</v>
+        <v>26</v>
       </c>
     </row>
     <row r="108" spans="1:4">
+      <c r="A108" t="s">
+        <v>158</v>
+      </c>
+      <c r="B108" t="s">
+        <v>159</v>
+      </c>
+      <c r="C108" t="s">
+        <v>113</v>
+      </c>
       <c r="D108" t="s">
-        <v>153</v>
+        <v>26</v>
       </c>
     </row>
     <row r="109" spans="1:4">
+      <c r="A109" t="s">
+        <v>169</v>
+      </c>
+      <c r="B109" t="s">
+        <v>160</v>
+      </c>
+      <c r="C109" t="s">
+        <v>113</v>
+      </c>
       <c r="D109" t="s">
-        <v>154</v>
+        <v>26</v>
       </c>
     </row>
     <row r="110" spans="1:4">
+      <c r="A110" t="s">
+        <v>168</v>
+      </c>
+      <c r="B110" t="s">
+        <v>161</v>
+      </c>
+      <c r="C110" t="s">
+        <v>162</v>
+      </c>
       <c r="D110" t="s">
-        <v>155</v>
+        <v>166</v>
       </c>
     </row>
     <row r="111" spans="1:4">
-      <c r="A111" t="s">
-        <v>166</v>
-      </c>
-      <c r="B111" t="s">
-        <v>157</v>
-      </c>
       <c r="C111" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="D111" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="112" spans="1:4">
-      <c r="D112" t="s">
-        <v>159</v>
+      <c r="C112" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="113" spans="1:4">
-      <c r="A113" t="s">
-        <v>167</v>
-      </c>
-      <c r="B113" t="s">
-        <v>161</v>
-      </c>
       <c r="C113" t="s">
-        <v>162</v>
-      </c>
-      <c r="D113" t="s">
-        <v>26</v>
+        <v>165</v>
       </c>
     </row>
     <row r="114" spans="1:4">
       <c r="A114" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B114" t="s">
-        <v>163</v>
+        <v>170</v>
+      </c>
+      <c r="C114" t="s">
+        <v>171</v>
       </c>
       <c r="D114" t="s">
-        <v>164</v>
+        <v>26</v>
       </c>
     </row>
     <row r="115" spans="1:4">
+      <c r="A115" t="s">
+        <v>173</v>
+      </c>
+      <c r="B115" t="s">
+        <v>172</v>
+      </c>
+      <c r="C115" t="s">
+        <v>171</v>
+      </c>
       <c r="D115" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="116" spans="1:4">
       <c r="A116" t="s">
-        <v>165</v>
+        <v>174</v>
       </c>
       <c r="B116" t="s">
-        <v>169</v>
+        <v>175</v>
       </c>
       <c r="C116" t="s">
-        <v>170</v>
+        <v>162</v>
       </c>
       <c r="D116" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
     </row>
     <row r="117" spans="1:4">
@@ -1955,13 +2052,13 @@
     </row>
     <row r="118" spans="1:4">
       <c r="A118" t="s">
+        <v>176</v>
+      </c>
+      <c r="B118" t="s">
+        <v>178</v>
+      </c>
+      <c r="C118" t="s">
         <v>171</v>
-      </c>
-      <c r="B118" t="s">
-        <v>173</v>
-      </c>
-      <c r="C118" t="s">
-        <v>113</v>
       </c>
       <c r="D118" t="s">
         <v>26</v>
@@ -1969,15 +2066,81 @@
     </row>
     <row r="119" spans="1:4">
       <c r="A119" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="B119" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="C119" t="s">
-        <v>113</v>
+        <v>171</v>
       </c>
       <c r="D119" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4">
+      <c r="A120" t="s">
+        <v>180</v>
+      </c>
+      <c r="B120" t="s">
+        <v>181</v>
+      </c>
+      <c r="C120" t="s">
+        <v>162</v>
+      </c>
+      <c r="D120" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4">
+      <c r="D121" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4">
+      <c r="A122" t="s">
+        <v>182</v>
+      </c>
+      <c r="B122" t="s">
+        <v>184</v>
+      </c>
+      <c r="C122" t="s">
+        <v>171</v>
+      </c>
+      <c r="D122" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4">
+      <c r="A123" t="s">
+        <v>183</v>
+      </c>
+      <c r="B123" t="s">
+        <v>185</v>
+      </c>
+      <c r="C123" t="s">
+        <v>171</v>
+      </c>
+      <c r="D123" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4">
+      <c r="A124" t="s">
+        <v>186</v>
+      </c>
+      <c r="B124" t="s">
+        <v>187</v>
+      </c>
+      <c r="C124" t="s">
+        <v>162</v>
+      </c>
+      <c r="D124" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4">
+      <c r="D125" t="s">
         <v>26</v>
       </c>
     </row>

--- a/api分配与需要前端post以及返回的json.xlsx
+++ b/api分配与需要前端post以及返回的json.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TEAMDOCUNMENT\TeamDocument\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\TeamDocument\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B45CC549-65C2-4524-A4FF-5F1ACCB93A52}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E43392C-687C-4AA4-B28A-1BAD4E134F41}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="19440" windowHeight="15000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -728,10 +728,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>api/yw/cancelCollect/</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>管理员同意修改请求</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -801,6 +797,10 @@
   </si>
   <si>
     <t>用户撤回申请</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>api/yw/cancelCollection/</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1162,8 +1162,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G125"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A106" workbookViewId="0">
-      <selection activeCell="G114" sqref="G114"/>
+    <sheetView tabSelected="1" topLeftCell="A91" workbookViewId="0">
+      <selection activeCell="A109" sqref="A109"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -1959,7 +1959,7 @@
     </row>
     <row r="109" spans="1:4">
       <c r="A109" t="s">
-        <v>169</v>
+        <v>187</v>
       </c>
       <c r="B109" t="s">
         <v>160</v>
@@ -2008,10 +2008,10 @@
         <v>167</v>
       </c>
       <c r="B114" t="s">
+        <v>169</v>
+      </c>
+      <c r="C114" t="s">
         <v>170</v>
-      </c>
-      <c r="C114" t="s">
-        <v>171</v>
       </c>
       <c r="D114" t="s">
         <v>26</v>
@@ -2019,13 +2019,13 @@
     </row>
     <row r="115" spans="1:4">
       <c r="A115" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B115" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C115" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D115" t="s">
         <v>26</v>
@@ -2033,10 +2033,10 @@
     </row>
     <row r="116" spans="1:4">
       <c r="A116" t="s">
+        <v>173</v>
+      </c>
+      <c r="B116" t="s">
         <v>174</v>
-      </c>
-      <c r="B116" t="s">
-        <v>175</v>
       </c>
       <c r="C116" t="s">
         <v>162</v>
@@ -2052,13 +2052,13 @@
     </row>
     <row r="118" spans="1:4">
       <c r="A118" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B118" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C118" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D118" t="s">
         <v>26</v>
@@ -2066,13 +2066,13 @@
     </row>
     <row r="119" spans="1:4">
       <c r="A119" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B119" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C119" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D119" t="s">
         <v>26</v>
@@ -2080,10 +2080,10 @@
     </row>
     <row r="120" spans="1:4">
       <c r="A120" t="s">
+        <v>179</v>
+      </c>
+      <c r="B120" t="s">
         <v>180</v>
-      </c>
-      <c r="B120" t="s">
-        <v>181</v>
       </c>
       <c r="C120" t="s">
         <v>162</v>
@@ -2099,13 +2099,13 @@
     </row>
     <row r="122" spans="1:4">
       <c r="A122" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B122" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C122" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D122" t="s">
         <v>26</v>
@@ -2113,13 +2113,13 @@
     </row>
     <row r="123" spans="1:4">
       <c r="A123" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B123" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C123" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D123" t="s">
         <v>26</v>
@@ -2127,10 +2127,10 @@
     </row>
     <row r="124" spans="1:4">
       <c r="A124" t="s">
+        <v>185</v>
+      </c>
+      <c r="B124" t="s">
         <v>186</v>
-      </c>
-      <c r="B124" t="s">
-        <v>187</v>
       </c>
       <c r="C124" t="s">
         <v>162</v>

--- a/api分配与需要前端post以及返回的json.xlsx
+++ b/api分配与需要前端post以及返回的json.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\TeamDocument\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E43392C-687C-4AA4-B28A-1BAD4E134F41}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63D72512-DDBC-4DBB-896B-1FAAE6CF9BD5}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="19440" windowHeight="15000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="188">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="192">
   <si>
     <t>url</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -801,6 +801,22 @@
   </si>
   <si>
     <t>api/yw/cancelCollection/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>api/yw/checkAttend/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户参加会议验证</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>uuid_act</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>status（默认为False,即未完成入场验证）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1160,10 +1176,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G125"/>
+  <dimension ref="A1:G127"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A91" workbookViewId="0">
-      <selection activeCell="A109" sqref="A109"/>
+    <sheetView tabSelected="1" topLeftCell="A100" workbookViewId="0">
+      <selection activeCell="D126" sqref="D126"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -2144,6 +2160,25 @@
         <v>26</v>
       </c>
     </row>
+    <row r="126" spans="1:4">
+      <c r="A126" t="s">
+        <v>188</v>
+      </c>
+      <c r="B126" t="s">
+        <v>189</v>
+      </c>
+      <c r="C126" t="s">
+        <v>190</v>
+      </c>
+      <c r="D126" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4">
+      <c r="D127" t="s">
+        <v>26</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/api分配与需要前端post以及返回的json.xlsx
+++ b/api分配与需要前端post以及返回的json.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\TeamDocument\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63D72512-DDBC-4DBB-896B-1FAAE6CF9BD5}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A424B62A-3F19-4423-AE61-084C01A3F0F9}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="19440" windowHeight="15000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="192">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="193">
   <si>
     <t>url</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -817,6 +817,10 @@
   </si>
   <si>
     <t>status（默认为False,即未完成入场验证）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>uuid_user</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1179,7 +1183,7 @@
   <dimension ref="A1:G127"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A100" workbookViewId="0">
-      <selection activeCell="D126" sqref="D126"/>
+      <selection activeCell="C127" sqref="C127"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -2175,6 +2179,9 @@
       </c>
     </row>
     <row r="127" spans="1:4">
+      <c r="C127" t="s">
+        <v>192</v>
+      </c>
       <c r="D127" t="s">
         <v>26</v>
       </c>

--- a/api分配与需要前端post以及返回的json.xlsx
+++ b/api分配与需要前端post以及返回的json.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\TeamDocument\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A424B62A-3F19-4423-AE61-084C01A3F0F9}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0260ACC8-F78D-442B-9E48-AFA777B254E6}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="19440" windowHeight="15000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="193">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="194">
   <si>
     <t>url</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -821,6 +821,10 @@
   </si>
   <si>
     <t>uuid_user</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>list_activity活动列表（包含uuid,_act name_act, start_time,end_time,logo,organizer和location)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1183,7 +1187,7 @@
   <dimension ref="A1:G127"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A100" workbookViewId="0">
-      <selection activeCell="C127" sqref="C127"/>
+      <selection activeCell="E110" sqref="E110"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -1936,7 +1940,7 @@
         <v>150</v>
       </c>
       <c r="D104" t="s">
-        <v>151</v>
+        <v>193</v>
       </c>
     </row>
     <row r="105" spans="1:4">

--- a/api分配与需要前端post以及返回的json.xlsx
+++ b/api分配与需要前端post以及返回的json.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\TeamDocument\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0260ACC8-F78D-442B-9E48-AFA777B254E6}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3159E5B4-ABCB-4D98-A152-922210154640}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="19440" windowHeight="15000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1186,8 +1186,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G127"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A100" workbookViewId="0">
-      <selection activeCell="E110" sqref="E110"/>
+    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="C76" sqref="C76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>

--- a/api分配与需要前端post以及返回的json.xlsx
+++ b/api分配与需要前端post以及返回的json.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\TeamDocument\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CodeMonkey\WORKSPACE\meetingSystem\TeamDocument\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3159E5B4-ABCB-4D98-A152-922210154640}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="19440" windowHeight="15000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="19440" windowHeight="15000"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="152511"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -214,10 +214,6 @@
   </si>
   <si>
     <t>status_username(True为该用户名已被注册）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>status登录状态 message信息</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -668,171 +664,175 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>api/yw/showRecommendation/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>根据关键词搜索</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>keyword</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>api/yw/cancelApply/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户取消报名活动</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户取消收藏活动</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户编辑会议</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_uuid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>logo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>delete_file</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>name，time，location等修改信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_status活动状态是否改变</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>api/activity/adminAgreeEdit/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>api/activity/editActivity/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>管理员同意修改请求</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>uuid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>管理员拒绝修改请求</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>api/activity/adminRefuseEdit/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>api/activity/deletaActivity/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户删除会议</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>api/activity/adminAgreeDelete/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>api/activity/adminRefuseDelete/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>管理员同意删除请求</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>管理员拒绝删除请求</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>api/activity/publishActivity/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户发布会议</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>api/activity/adminAgreePublish/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>api/activity/adminRefusePublish/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>管理员同意发布请求</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>管理员拒绝发布请求</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>api/activity/cancelApplication/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户撤回申请</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>api/yw/cancelCollection/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>api/yw/checkAttend/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户参加会议验证</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>uuid_act</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>status（默认为False,即未完成入场验证）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>uuid_user</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>list_activity活动列表（包含uuid,_act name_act, start_time,end_time,logo,organizer和location)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>api/yw/add_in_recommendation/</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>api/yw/showRecommendation/</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>根据关键词搜索</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>keyword</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>api/yw/cancelApply/</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户取消报名活动</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户取消收藏活动</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户编辑会议</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>act_uuid</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>logo</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>delete_file</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>name，time，location等修改信息</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>act_status活动状态是否改变</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>api/activity/adminAgreeEdit/</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>api/activity/editActivity/</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>管理员同意修改请求</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>uuid</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>管理员拒绝修改请求</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>api/activity/adminRefuseEdit/</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>api/activity/deletaActivity/</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户删除会议</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>api/activity/adminAgreeDelete/</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>api/activity/adminRefuseDelete/</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>管理员同意删除请求</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>管理员拒绝删除请求</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>api/activity/publishActivity/</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户发布会议</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>api/activity/adminAgreePublish/</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>api/activity/adminRefusePublish/</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>管理员同意发布请求</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>管理员拒绝发布请求</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>api/activity/cancelApplication/</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户撤回申请</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>api/yw/cancelCollection/</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>api/yw/checkAttend/</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户参加会议验证</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>uuid_act</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>status（默认为False,即未完成入场验证）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>uuid_user</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>list_activity活动列表（包含uuid,_act name_act, start_time,end_time,logo,organizer和location)</t>
+    <t>status登录状态 message信息  用户类型 0普通用户 1企业用户</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1183,14 +1183,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G127"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="C76" sqref="C76"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="37.21875" customWidth="1"/>
     <col min="2" max="2" width="15.21875" customWidth="1"/>
@@ -1198,7 +1198,7 @@
     <col min="4" max="4" width="52" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.6">
+    <row r="1" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1212,10 +1212,10 @@
         <v>2</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -1229,7 +1229,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="14.4" customHeight="1">
+    <row r="3" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -1240,10 +1240,10 @@
         <v>8</v>
       </c>
       <c r="D3" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>9</v>
       </c>
@@ -1251,7 +1251,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>12</v>
       </c>
@@ -1262,10 +1262,10 @@
         <v>11</v>
       </c>
       <c r="D5" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>16</v>
       </c>
@@ -1279,12 +1279,12 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D7" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>19</v>
       </c>
@@ -1298,17 +1298,17 @@
         <v>24</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D9" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D10" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>21</v>
       </c>
@@ -1319,10 +1319,10 @@
         <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>14</v>
       </c>
@@ -1336,7 +1336,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
         <v>29</v>
       </c>
@@ -1344,7 +1344,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
         <v>9</v>
       </c>
@@ -1352,839 +1352,839 @@
         <v>49</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="17" spans="1:4">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="18" spans="1:4">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="19" spans="1:4">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="20" spans="1:4">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="21" spans="1:4">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="22" spans="1:4">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C22" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="23" spans="1:4">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
+        <v>80</v>
+      </c>
+      <c r="B23" t="s">
         <v>81</v>
-      </c>
-      <c r="B23" t="s">
-        <v>82</v>
       </c>
       <c r="C23" t="s">
         <v>8</v>
       </c>
       <c r="D23" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C24" t="s">
+        <v>82</v>
+      </c>
+      <c r="D24" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="24" spans="1:4">
-      <c r="C24" t="s">
-        <v>83</v>
-      </c>
-      <c r="D24" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
+        <v>52</v>
+      </c>
+      <c r="B25" t="s">
+        <v>51</v>
+      </c>
+      <c r="D25" t="s">
         <v>53</v>
       </c>
-      <c r="B25" t="s">
-        <v>52</v>
-      </c>
-      <c r="D25" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D26" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="27" spans="1:4">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D27" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="28" spans="1:4">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D28" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="29" spans="1:4">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D29" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="30" spans="1:4">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D30" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="31" spans="1:4">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D31" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="32" spans="1:4">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D32" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="33" spans="1:7">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D33" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="34" spans="1:7">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D34" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="35" spans="1:7">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D35" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="36" spans="1:7">
-      <c r="A36" t="s">
+      <c r="B36" t="s">
         <v>56</v>
       </c>
-      <c r="B36" t="s">
+      <c r="C36" t="s">
         <v>57</v>
       </c>
-      <c r="C36" t="s">
+      <c r="D36" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C37" t="s">
         <v>58</v>
       </c>
-      <c r="D36" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7">
-      <c r="C37" t="s">
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C38" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="38" spans="1:7">
-      <c r="C38" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C39" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="40" spans="1:7">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C40" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C41" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="41" spans="1:7">
-      <c r="C41" t="s">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C42" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="42" spans="1:7">
-      <c r="C42" t="s">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C43" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="43" spans="1:7">
-      <c r="C43" t="s">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C44" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="44" spans="1:7">
-      <c r="C44" t="s">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C45" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="45" spans="1:7">
-      <c r="C45" t="s">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="46" spans="1:7">
-      <c r="A46" t="s">
+      <c r="B46" t="s">
         <v>67</v>
       </c>
-      <c r="B46" t="s">
+      <c r="C46" t="s">
         <v>68</v>
       </c>
-      <c r="C46" t="s">
+      <c r="D46" t="s">
         <v>69</v>
       </c>
-      <c r="D46" t="s">
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D47" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="47" spans="1:7">
-      <c r="D47" t="s">
+      <c r="G47" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D48" t="s">
         <v>71</v>
       </c>
-      <c r="G47" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7">
-      <c r="D48" t="s">
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D49" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D50" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D51" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="49" spans="1:4">
-      <c r="D49" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4">
-      <c r="D50" t="s">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D52" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D53" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D54" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D55" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D56" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D57" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D58" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>115</v>
+      </c>
+      <c r="B60" t="s">
+        <v>77</v>
+      </c>
+      <c r="C60" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C61" t="s">
+        <v>71</v>
+      </c>
+      <c r="D61" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C62" t="s">
+        <v>78</v>
+      </c>
+      <c r="D62" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C63" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C64" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C65" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C66" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C67" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C68" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>116</v>
+      </c>
+      <c r="B69" t="s">
+        <v>87</v>
+      </c>
+      <c r="C69" t="s">
+        <v>88</v>
+      </c>
+      <c r="D69" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C70" t="s">
+        <v>89</v>
+      </c>
+      <c r="D70" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>117</v>
+      </c>
+      <c r="B71" t="s">
+        <v>92</v>
+      </c>
+      <c r="D71" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D72" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>118</v>
+      </c>
+      <c r="B73" t="s">
+        <v>94</v>
+      </c>
+      <c r="D73" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="51" spans="1:4">
-      <c r="D51" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
-      <c r="D52" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4">
-      <c r="D53" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
-      <c r="D54" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
-      <c r="D55" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
-      <c r="D56" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
-      <c r="D57" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4">
-      <c r="D58" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
-      <c r="A60" t="s">
-        <v>116</v>
-      </c>
-      <c r="B60" t="s">
-        <v>78</v>
-      </c>
-      <c r="C60" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
-      <c r="C61" t="s">
-        <v>72</v>
-      </c>
-      <c r="D61" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
-      <c r="C62" t="s">
-        <v>79</v>
-      </c>
-      <c r="D62" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4">
-      <c r="C63" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
-      <c r="C64" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6">
-      <c r="C65" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6">
-      <c r="C66" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6">
-      <c r="C67" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6">
-      <c r="C68" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6">
-      <c r="A69" t="s">
-        <v>117</v>
-      </c>
-      <c r="B69" t="s">
-        <v>88</v>
-      </c>
-      <c r="C69" t="s">
-        <v>89</v>
-      </c>
-      <c r="D69" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6">
-      <c r="C70" t="s">
-        <v>90</v>
-      </c>
-      <c r="D70" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6">
-      <c r="A71" t="s">
-        <v>118</v>
-      </c>
-      <c r="B71" t="s">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D74" t="s">
         <v>93</v>
       </c>
-      <c r="D71" t="s">
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>125</v>
+      </c>
+      <c r="B76" t="s">
+        <v>95</v>
+      </c>
+      <c r="C76" t="s">
+        <v>96</v>
+      </c>
+      <c r="D76" t="s">
+        <v>99</v>
+      </c>
+      <c r="F76" s="2" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C77" t="s">
+        <v>97</v>
+      </c>
+      <c r="D77" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C78" t="s">
+        <v>98</v>
+      </c>
+      <c r="D78" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D79" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D80" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D81" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D82" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>119</v>
+      </c>
+      <c r="B84" t="s">
+        <v>113</v>
+      </c>
+      <c r="C84" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="72" spans="1:6">
-      <c r="D72" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6">
-      <c r="A73" t="s">
-        <v>119</v>
-      </c>
-      <c r="B73" t="s">
-        <v>95</v>
-      </c>
-      <c r="D73" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6">
-      <c r="D74" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6">
-      <c r="A76" t="s">
-        <v>126</v>
-      </c>
-      <c r="B76" t="s">
-        <v>96</v>
-      </c>
-      <c r="C76" t="s">
-        <v>97</v>
-      </c>
-      <c r="D76" t="s">
-        <v>100</v>
-      </c>
-      <c r="F76" s="2" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6">
-      <c r="C77" t="s">
-        <v>98</v>
-      </c>
-      <c r="D77" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6">
-      <c r="C78" t="s">
-        <v>99</v>
-      </c>
-      <c r="D78" s="2" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6">
-      <c r="D79" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="80" spans="1:6">
-      <c r="D80" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
-      <c r="D81" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
-      <c r="D82" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
-      <c r="A84" t="s">
+      <c r="D84" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
         <v>120</v>
       </c>
-      <c r="B84" t="s">
-        <v>114</v>
-      </c>
-      <c r="C84" t="s">
-        <v>113</v>
-      </c>
-      <c r="D84" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4">
-      <c r="A85" t="s">
+      <c r="B85" t="s">
         <v>121</v>
       </c>
-      <c r="B85" t="s">
-        <v>122</v>
-      </c>
       <c r="C85" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D85" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="86" spans="1:4">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B86" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D86" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D87" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="88" spans="1:4">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B88" t="s">
+        <v>127</v>
+      </c>
+      <c r="D88" t="s">
         <v>128</v>
       </c>
-      <c r="D88" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D89" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="90" spans="1:4">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B90" t="s">
+        <v>130</v>
+      </c>
+      <c r="C90" t="s">
         <v>131</v>
-      </c>
-      <c r="C90" t="s">
-        <v>132</v>
       </c>
       <c r="D90" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="91" spans="1:4">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D91" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D92" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="92" spans="1:4">
-      <c r="D92" t="s">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D93" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="93" spans="1:4">
-      <c r="D93" t="s">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D94" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="94" spans="1:4">
-      <c r="D94" t="s">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D95" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="95" spans="1:4">
-      <c r="D95" t="s">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D96" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="96" spans="1:4">
-      <c r="D96" t="s">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D97" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="97" spans="1:4">
-      <c r="D97" t="s">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D98" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="98" spans="1:4">
-      <c r="D98" t="s">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D99" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="99" spans="1:4">
-      <c r="D99" t="s">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D100" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="100" spans="1:4">
-      <c r="D100" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B101" t="s">
+        <v>143</v>
+      </c>
+      <c r="C101" t="s">
         <v>144</v>
-      </c>
-      <c r="C101" t="s">
-        <v>145</v>
       </c>
       <c r="D101" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="102" spans="1:4">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D102" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>154</v>
+        <v>192</v>
       </c>
       <c r="B103" t="s">
+        <v>147</v>
+      </c>
+      <c r="C103" t="s">
         <v>148</v>
-      </c>
-      <c r="C103" t="s">
-        <v>149</v>
       </c>
       <c r="D103" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="104" spans="1:4">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B104" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D104" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="105" spans="1:4">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D105" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="106" spans="1:4">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B106" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C106" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D106" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="107" spans="1:4">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D107" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="108" spans="1:4">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B108" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C108" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D108" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="109" spans="1:4">
+    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="B109" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C109" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D109" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="110" spans="1:4">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B110" t="s">
+        <v>159</v>
+      </c>
+      <c r="C110" t="s">
+        <v>160</v>
+      </c>
+      <c r="D110" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C111" t="s">
         <v>161</v>
-      </c>
-      <c r="C110" t="s">
-        <v>162</v>
-      </c>
-      <c r="D110" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="111" spans="1:4">
-      <c r="C111" t="s">
-        <v>163</v>
       </c>
       <c r="D111" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="112" spans="1:4">
+    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C112" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="113" spans="1:4">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C113" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
         <v>165</v>
       </c>
-    </row>
-    <row r="114" spans="1:4">
-      <c r="A114" t="s">
+      <c r="B114" t="s">
         <v>167</v>
       </c>
-      <c r="B114" t="s">
-        <v>169</v>
-      </c>
       <c r="C114" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D114" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="115" spans="1:4">
+    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B115" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C115" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D115" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="116" spans="1:4">
+    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="B116" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="C116" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D116" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="117" spans="1:4">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D117" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="118" spans="1:4">
+    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
+        <v>173</v>
+      </c>
+      <c r="B118" t="s">
         <v>175</v>
       </c>
-      <c r="B118" t="s">
-        <v>177</v>
-      </c>
       <c r="C118" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D118" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="119" spans="1:4">
+    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
+        <v>174</v>
+      </c>
+      <c r="B119" t="s">
         <v>176</v>
       </c>
-      <c r="B119" t="s">
-        <v>178</v>
-      </c>
       <c r="C119" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D119" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="120" spans="1:4">
+    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B120" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="C120" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D120" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="121" spans="1:4">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D121" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="122" spans="1:4">
+    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
+        <v>179</v>
+      </c>
+      <c r="B122" t="s">
         <v>181</v>
       </c>
-      <c r="B122" t="s">
-        <v>183</v>
-      </c>
       <c r="C122" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D122" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="123" spans="1:4">
+    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
+        <v>180</v>
+      </c>
+      <c r="B123" t="s">
         <v>182</v>
       </c>
-      <c r="B123" t="s">
-        <v>184</v>
-      </c>
       <c r="C123" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D123" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="124" spans="1:4">
+    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B124" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C124" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D124" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="125" spans="1:4">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D125" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="126" spans="1:4">
+    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
+        <v>186</v>
+      </c>
+      <c r="B126" t="s">
+        <v>187</v>
+      </c>
+      <c r="C126" t="s">
         <v>188</v>
       </c>
-      <c r="B126" t="s">
+      <c r="D126" t="s">
         <v>189</v>
       </c>
-      <c r="C126" t="s">
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C127" t="s">
         <v>190</v>
-      </c>
-      <c r="D126" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="127" spans="1:4">
-      <c r="C127" t="s">
-        <v>192</v>
       </c>
       <c r="D127" t="s">
         <v>26</v>

--- a/api分配与需要前端post以及返回的json.xlsx
+++ b/api分配与需要前端post以及返回的json.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CodeMonkey\WORKSPACE\meetingSystem\TeamDocument\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TEAMDOCUNMENT\TeamDocument\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40820524-8AFE-4D2E-B893-BBD4FEAA0BF0}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="19440" windowHeight="15000"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="152511"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="194">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="195">
   <si>
     <t>url</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -458,8 +458,355 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t xml:space="preserve">status_publish : unpublished,published, to_be_audited(待审核） </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>status_process : not_start, processing, finished</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>list_activity活动列表（列表中嵌套字典，一个字典就是一个活动，包含uuid_act、name_act、start_time、end_time）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>list_activity活动列表（列表中嵌套字典，一个字典就是一个活动，包含uuid_act、name_act、start_time、end_time）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>uuid_act会议uuid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户报名活动</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>message信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>api/activity/createActivity/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>api/activity/uploadFile/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>api/personal_center/history_attend/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>api/personal_center/history_organize/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>api/yw/apply/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>api/yw/collect/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户收藏活动</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>显示最近会议</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{logo:"#",name:"#",start_time:"#",end_time:"#",location:"#",organizer:"#",introduction:"#",files:[{fileName:"#",fileSrc:"#"},..],type:"#","status_process":string, status_publish:string, isHold : bool}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>api/yw/showRecent/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>api/activity/pageDisplay/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">roleType:int :0-游客 1-非发布者 2-发布者 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查看待审核活动</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>list_activity活动列表（包含uuid_act,name_act,location,,start_time,end_time,organizer,action)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>api/yw/showActivityList/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>显示审核修改界面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>uuid（活动）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>name_old会议名称 name_new</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>type_old会议类型  type_new</t>
+  </si>
+  <si>
+    <t>start_time_old开始时间  start_time_new</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>end_time_old结束时间  end_time_new</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>location_old地点  location_new</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>organizer_old主办方  organizer_new</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>logo_old会议图标  logo_new</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>introduction_old会议介绍  introduction_new</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>logo_old  logo_new</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>files_new</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>api/yw/showModification/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>返回二维码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>uuid_act</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>qrcode</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>status登录状态 isAdmin是否为管理员</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>加入推荐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>uuid_act</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>展示推荐活动</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>list_activity活动列表（包含uuid,_act name_act, start_time,end_time,logo和location)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>api/yw/search/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>api/yw/getQRcode/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>api/yw/showRecommendation/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>根据关键词搜索</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>keyword</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>api/yw/cancelApply/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户取消报名活动</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户取消收藏活动</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户编辑会议</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_uuid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>logo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>delete_file</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>name，time，location等修改信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_status活动状态是否改变</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>api/activity/adminAgreeEdit/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>api/activity/editActivity/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>管理员同意修改请求</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>uuid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>管理员拒绝修改请求</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>api/activity/adminRefuseEdit/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>api/activity/deletaActivity/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户删除会议</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>api/activity/adminAgreeDelete/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>api/activity/adminRefuseDelete/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>管理员同意删除请求</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>管理员拒绝删除请求</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>api/activity/publishActivity/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户发布会议</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>api/activity/adminAgreePublish/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>api/activity/adminRefusePublish/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>管理员同意发布请求</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>管理员拒绝发布请求</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>api/activity/cancelApplication/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户撤回申请</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>api/yw/cancelCollection/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>api/yw/checkAttend/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户参加会议验证</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>uuid_act</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>status（默认为False,即未完成入场验证）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>uuid_user</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>list_activity活动列表（包含uuid,_act name_act, start_time,end_time,logo,organizer和location)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>api/yw/add_in_recommendation/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>status登录状态 message信息  用户类型 0普通用户 1企业用户</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>num 报名人数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <r>
-      <t>{pageNum:int,activities:[{logoSrc:"#",activityName:"#",location:"#",startTime:"#",endTime:"#",id:"#"},{...}</t>
+      <t>{pageNum:int,activities:[{logoSrc:"#",activityName:"#",location:"#",startTime:"#",endTime:"#",id:"#",num:int,ifRecommended:False},{...}</t>
     </r>
     <r>
       <rPr>
@@ -484,355 +831,12 @@
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
-  <si>
-    <t xml:space="preserve">status_publish : unpublished,published, to_be_audited(待审核） </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>status_process : not_start, processing, finished</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>list_activity活动列表（列表中嵌套字典，一个字典就是一个活动，包含uuid_act、name_act、start_time、end_time）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>list_activity活动列表（列表中嵌套字典，一个字典就是一个活动，包含uuid_act、name_act、start_time、end_time）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>uuid_act会议uuid</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户报名活动</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>message信息</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>api/activity/createActivity/</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>api/activity/uploadFile/</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>api/personal_center/history_attend/</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>api/personal_center/history_organize/</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>api/yw/apply/</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>api/yw/collect/</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户收藏活动</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>显示最近会议</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{logo:"#",name:"#",start_time:"#",end_time:"#",location:"#",organizer:"#",introduction:"#",files:[{fileName:"#",fileSrc:"#"},..],type:"#","status_process":string, status_publish:string, isHold : bool}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>api/yw/showRecent/</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>api/activity/pageDisplay/</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">roleType:int :0-游客 1-非发布者 2-发布者 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>查看待审核活动</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>list_activity活动列表（包含uuid_act,name_act,location,,start_time,end_time,organizer,action)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>api/yw/showActivityList/</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>显示审核修改界面</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>uuid（活动）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>name_old会议名称 name_new</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>type_old会议类型  type_new</t>
-  </si>
-  <si>
-    <t>start_time_old开始时间  start_time_new</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>end_time_old结束时间  end_time_new</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>location_old地点  location_new</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>organizer_old主办方  organizer_new</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>logo_old会议图标  logo_new</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>introduction_old会议介绍  introduction_new</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>logo_old  logo_new</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>files_new</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>api/yw/showModification/</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>返回二维码</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>uuid_act</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>qrcode</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>status登录状态 isAdmin是否为管理员</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>加入推荐</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>uuid_act</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>展示推荐活动</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>list_activity活动列表（包含uuid,_act name_act, start_time,end_time,logo和location)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>api/yw/search/</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>api/yw/getQRcode/</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>api/yw/showRecommendation/</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>根据关键词搜索</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>keyword</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>api/yw/cancelApply/</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户取消报名活动</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户取消收藏活动</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户编辑会议</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>act_uuid</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>logo</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>delete_file</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>name，time，location等修改信息</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>act_status活动状态是否改变</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>api/activity/adminAgreeEdit/</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>api/activity/editActivity/</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>管理员同意修改请求</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>uuid</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>管理员拒绝修改请求</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>api/activity/adminRefuseEdit/</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>api/activity/deletaActivity/</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户删除会议</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>api/activity/adminAgreeDelete/</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>api/activity/adminRefuseDelete/</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>管理员同意删除请求</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>管理员拒绝删除请求</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>api/activity/publishActivity/</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户发布会议</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>api/activity/adminAgreePublish/</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>api/activity/adminRefusePublish/</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>管理员同意发布请求</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>管理员拒绝发布请求</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>api/activity/cancelApplication/</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户撤回申请</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>api/yw/cancelCollection/</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>api/yw/checkAttend/</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户参加会议验证</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>uuid_act</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>status（默认为False,即未完成入场验证）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>uuid_user</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>list_activity活动列表（包含uuid,_act name_act, start_time,end_time,logo,organizer和location)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>api/yw/add_in_recommendation/</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>status登录状态 message信息  用户类型 0普通用户 1企业用户</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1183,14 +1187,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G127"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
+      <selection activeCell="F76" sqref="F76"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
     <col min="1" max="1" width="37.21875" customWidth="1"/>
     <col min="2" max="2" width="15.21875" customWidth="1"/>
@@ -1198,7 +1202,7 @@
     <col min="4" max="4" width="52" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" ht="15.6">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1215,7 +1219,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -1229,7 +1233,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" ht="14.4" customHeight="1">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -1240,10 +1244,10 @@
         <v>8</v>
       </c>
       <c r="D3" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="C4" t="s">
         <v>9</v>
       </c>
@@ -1251,7 +1255,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6">
       <c r="A5" t="s">
         <v>12</v>
       </c>
@@ -1262,10 +1266,10 @@
         <v>11</v>
       </c>
       <c r="D5" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" t="s">
         <v>16</v>
       </c>
@@ -1279,12 +1283,12 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6">
       <c r="D7" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6">
       <c r="A8" t="s">
         <v>19</v>
       </c>
@@ -1298,17 +1302,17 @@
         <v>24</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6">
       <c r="D9" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6">
       <c r="D10" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6">
       <c r="A11" t="s">
         <v>21</v>
       </c>
@@ -1322,7 +1326,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6">
       <c r="A12" t="s">
         <v>14</v>
       </c>
@@ -1336,7 +1340,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6">
       <c r="C13" t="s">
         <v>29</v>
       </c>
@@ -1344,7 +1348,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6">
       <c r="C14" t="s">
         <v>9</v>
       </c>
@@ -1352,47 +1356,47 @@
         <v>49</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6">
       <c r="C15" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6">
       <c r="C16" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4">
       <c r="C17" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4">
       <c r="C18" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4">
       <c r="C19" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4">
       <c r="C20" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4">
       <c r="C21" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4">
       <c r="C22" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4">
       <c r="A23" t="s">
         <v>80</v>
       </c>
@@ -1406,7 +1410,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4">
       <c r="C24" t="s">
         <v>82</v>
       </c>
@@ -1414,7 +1418,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4">
       <c r="A25" t="s">
         <v>52</v>
       </c>
@@ -1425,57 +1429,57 @@
         <v>53</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4">
       <c r="D26" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4">
       <c r="D27" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4">
       <c r="D28" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4">
       <c r="D29" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4">
       <c r="D30" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4">
       <c r="D31" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4">
       <c r="D32" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7">
       <c r="D33" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7">
       <c r="D34" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7">
       <c r="D35" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7">
       <c r="A36" t="s">
         <v>55</v>
       </c>
@@ -1489,52 +1493,52 @@
         <v>54</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7">
       <c r="C37" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7">
       <c r="C38" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7">
       <c r="C39" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7">
       <c r="C40" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7">
       <c r="C41" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7">
       <c r="C42" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7">
       <c r="C43" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7">
       <c r="C44" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7">
       <c r="C45" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7">
       <c r="A46" t="s">
         <v>66</v>
       </c>
@@ -1548,72 +1552,77 @@
         <v>69</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7">
       <c r="D47" t="s">
         <v>70</v>
       </c>
       <c r="G47" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
       <c r="D48" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:4">
       <c r="D49" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
+      <c r="D50" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D50" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:4">
       <c r="D51" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:4">
       <c r="D52" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:4">
       <c r="D53" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:4">
       <c r="D54" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:4">
       <c r="D55" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:4">
       <c r="D56" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:4">
       <c r="D57" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:4">
       <c r="D58" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
+      <c r="D59" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
       <c r="A60" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B60" t="s">
         <v>77</v>
@@ -1622,7 +1631,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:4">
       <c r="C61" t="s">
         <v>71</v>
       </c>
@@ -1630,7 +1639,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:4">
       <c r="C62" t="s">
         <v>78</v>
       </c>
@@ -1638,39 +1647,39 @@
         <v>86</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:4">
       <c r="C63" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:4">
       <c r="C64" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6">
       <c r="C65" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6">
       <c r="C66" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6">
       <c r="C67" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6">
       <c r="C68" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6">
       <c r="A69" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B69" t="s">
         <v>87</v>
@@ -1682,7 +1691,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6">
       <c r="C70" t="s">
         <v>89</v>
       </c>
@@ -1690,41 +1699,41 @@
         <v>91</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6">
       <c r="A71" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B71" t="s">
         <v>92</v>
       </c>
       <c r="D71" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6">
       <c r="D72" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6">
       <c r="A73" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B73" t="s">
         <v>94</v>
       </c>
       <c r="D73" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6">
       <c r="D74" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:6">
       <c r="A76" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B76" t="s">
         <v>95</v>
@@ -1736,10 +1745,10 @@
         <v>99</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6">
       <c r="C77" t="s">
         <v>97</v>
       </c>
@@ -1747,7 +1756,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:6">
       <c r="C78" t="s">
         <v>98</v>
       </c>
@@ -1755,436 +1764,436 @@
         <v>101</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:6">
       <c r="D79" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:6">
       <c r="D80" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:4">
       <c r="D81" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:4">
       <c r="D82" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:4">
       <c r="A84" t="s">
+        <v>118</v>
+      </c>
+      <c r="B84" t="s">
+        <v>112</v>
+      </c>
+      <c r="C84" t="s">
+        <v>111</v>
+      </c>
+      <c r="D84" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4">
+      <c r="A85" t="s">
         <v>119</v>
       </c>
-      <c r="B84" t="s">
-        <v>113</v>
-      </c>
-      <c r="C84" t="s">
-        <v>112</v>
-      </c>
-      <c r="D84" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A85" t="s">
+      <c r="B85" t="s">
         <v>120</v>
       </c>
-      <c r="B85" t="s">
-        <v>121</v>
-      </c>
       <c r="C85" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D85" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:4">
       <c r="A86" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B86" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D86" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4">
       <c r="D87" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:4">
       <c r="A88" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B88" t="s">
+        <v>126</v>
+      </c>
+      <c r="D88" t="s">
         <v>127</v>
       </c>
-      <c r="D88" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="89" spans="1:4">
       <c r="D89" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:4">
       <c r="A90" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B90" t="s">
+        <v>129</v>
+      </c>
+      <c r="C90" t="s">
         <v>130</v>
-      </c>
-      <c r="C90" t="s">
-        <v>131</v>
       </c>
       <c r="D90" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:4">
       <c r="D91" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4">
+      <c r="D92" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D92" t="s">
+    <row r="93" spans="1:4">
+      <c r="D93" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D93" t="s">
+    <row r="94" spans="1:4">
+      <c r="D94" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D94" t="s">
+    <row r="95" spans="1:4">
+      <c r="D95" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D95" t="s">
+    <row r="96" spans="1:4">
+      <c r="D96" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D96" t="s">
+    <row r="97" spans="1:4">
+      <c r="D97" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D97" t="s">
+    <row r="98" spans="1:4">
+      <c r="D98" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D98" t="s">
+    <row r="99" spans="1:4">
+      <c r="D99" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D99" t="s">
+    <row r="100" spans="1:4">
+      <c r="D100" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D100" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:4">
       <c r="A101" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B101" t="s">
+        <v>142</v>
+      </c>
+      <c r="C101" t="s">
         <v>143</v>
-      </c>
-      <c r="C101" t="s">
-        <v>144</v>
       </c>
       <c r="D101" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:4">
       <c r="D102" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4">
       <c r="A103" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B103" t="s">
+        <v>146</v>
+      </c>
+      <c r="C103" t="s">
         <v>147</v>
-      </c>
-      <c r="C103" t="s">
-        <v>148</v>
       </c>
       <c r="D103" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:4">
       <c r="A104" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B104" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D104" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4">
       <c r="D105" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:4">
       <c r="A106" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B106" t="s">
+        <v>153</v>
+      </c>
+      <c r="C106" t="s">
         <v>154</v>
       </c>
-      <c r="C106" t="s">
-        <v>155</v>
-      </c>
       <c r="D106" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4">
       <c r="D107" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:4">
       <c r="A108" t="s">
+        <v>155</v>
+      </c>
+      <c r="B108" t="s">
         <v>156</v>
       </c>
-      <c r="B108" t="s">
-        <v>157</v>
-      </c>
       <c r="C108" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D108" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:4">
       <c r="A109" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B109" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C109" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D109" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:4">
       <c r="A110" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B110" t="s">
+        <v>158</v>
+      </c>
+      <c r="C110" t="s">
         <v>159</v>
       </c>
-      <c r="C110" t="s">
+      <c r="D110" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4">
+      <c r="C111" t="s">
         <v>160</v>
-      </c>
-      <c r="D110" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C111" t="s">
-        <v>161</v>
       </c>
       <c r="D111" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:4">
       <c r="C112" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4">
+      <c r="C113" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C113" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:4">
       <c r="A114" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B114" t="s">
+        <v>166</v>
+      </c>
+      <c r="C114" t="s">
         <v>167</v>
-      </c>
-      <c r="C114" t="s">
-        <v>168</v>
       </c>
       <c r="D114" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:4">
       <c r="A115" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B115" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C115" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D115" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:4">
       <c r="A116" t="s">
+        <v>170</v>
+      </c>
+      <c r="B116" t="s">
         <v>171</v>
       </c>
-      <c r="B116" t="s">
-        <v>172</v>
-      </c>
       <c r="C116" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D116" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4">
       <c r="D117" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:4">
       <c r="A118" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B118" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C118" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D118" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:4">
       <c r="A119" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B119" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C119" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D119" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:4">
       <c r="A120" t="s">
+        <v>176</v>
+      </c>
+      <c r="B120" t="s">
         <v>177</v>
       </c>
-      <c r="B120" t="s">
-        <v>178</v>
-      </c>
       <c r="C120" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D120" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4">
       <c r="D121" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:4">
       <c r="A122" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B122" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C122" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D122" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:4">
       <c r="A123" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B123" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C123" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D123" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:4">
       <c r="A124" t="s">
+        <v>182</v>
+      </c>
+      <c r="B124" t="s">
         <v>183</v>
       </c>
-      <c r="B124" t="s">
-        <v>184</v>
-      </c>
       <c r="C124" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D124" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4">
       <c r="D125" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:4">
       <c r="A126" t="s">
+        <v>185</v>
+      </c>
+      <c r="B126" t="s">
         <v>186</v>
       </c>
-      <c r="B126" t="s">
+      <c r="C126" t="s">
         <v>187</v>
       </c>
-      <c r="C126" t="s">
+      <c r="D126" t="s">
         <v>188</v>
       </c>
-      <c r="D126" t="s">
+    </row>
+    <row r="127" spans="1:4">
+      <c r="C127" t="s">
         <v>189</v>
-      </c>
-    </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C127" t="s">
-        <v>190</v>
       </c>
       <c r="D127" t="s">
         <v>26</v>

--- a/api分配与需要前端post以及返回的json.xlsx
+++ b/api分配与需要前端post以及返回的json.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TEAMDOCUNMENT\TeamDocument\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40820524-8AFE-4D2E-B893-BBD4FEAA0BF0}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A5099A2-8391-40FD-A6D7-F54D9E1222A1}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="195">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="197">
   <si>
     <t>url</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -829,6 +829,14 @@
       </rPr>
       <t>{...}]}</t>
     </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>api/activity/updateStatus/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>更新会议进行状态</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1188,10 +1196,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G127"/>
+  <dimension ref="A1:G128"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
-      <selection activeCell="F76" sqref="F76"/>
+    <sheetView tabSelected="1" topLeftCell="A118" workbookViewId="0">
+      <selection activeCell="C130" sqref="C130"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -2199,6 +2207,14 @@
         <v>26</v>
       </c>
     </row>
+    <row r="128" spans="1:4">
+      <c r="A128" t="s">
+        <v>195</v>
+      </c>
+      <c r="B128" t="s">
+        <v>196</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
